--- a/data/노래 라벨링 감정 7개.xlsx
+++ b/data/노래 라벨링 감정 7개.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$127</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="483">
   <si>
     <t>제목</t>
   </si>
@@ -1542,6 +1542,18 @@
   </si>
   <si>
     <t>붙어있자 (Feat. Jozu)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불안</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기쁨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1871,17 +1883,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.3984375" customWidth="1"/>
+    <col min="1" max="1" width="43.296875" customWidth="1"/>
     <col min="2" max="2" width="20.3984375" customWidth="1"/>
-    <col min="3" max="3" width="7.59765625" customWidth="1"/>
+    <col min="3" max="3" width="27.69921875" customWidth="1"/>
     <col min="4" max="4" width="51.8984375" customWidth="1"/>
     <col min="5" max="5" width="40.19921875" customWidth="1"/>
     <col min="6" max="6" width="25.69921875" customWidth="1"/>
@@ -1922,7 +1935,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>482</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
@@ -2340,7 +2353,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>88</v>
       </c>
@@ -2358,7 +2371,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>91</v>
       </c>
@@ -2382,7 +2395,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>429</v>
       </c>
@@ -2400,7 +2413,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>99</v>
       </c>
@@ -2418,7 +2431,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>102</v>
       </c>
@@ -2438,7 +2451,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>105</v>
       </c>
@@ -2456,7 +2469,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>108</v>
       </c>
@@ -2476,7 +2489,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>111</v>
       </c>
@@ -2496,7 +2509,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>114</v>
       </c>
@@ -2514,7 +2527,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>117</v>
       </c>
@@ -2532,7 +2545,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>120</v>
       </c>
@@ -2550,7 +2563,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>123</v>
       </c>
@@ -2568,7 +2581,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>125</v>
       </c>
@@ -2586,7 +2599,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>128</v>
       </c>
@@ -2604,7 +2617,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>130</v>
       </c>
@@ -2622,7 +2635,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>133</v>
       </c>
@@ -2640,7 +2653,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>64</v>
       </c>
@@ -2658,7 +2671,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>433</v>
       </c>
@@ -2676,7 +2689,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>136</v>
       </c>
@@ -2694,7 +2707,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>138</v>
       </c>
@@ -2712,7 +2725,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>141</v>
       </c>
@@ -2730,7 +2743,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>144</v>
       </c>
@@ -2748,7 +2761,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>147</v>
       </c>
@@ -2766,7 +2779,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>294</v>
       </c>
@@ -2784,7 +2797,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>150</v>
       </c>
@@ -2802,7 +2815,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>152</v>
       </c>
@@ -2820,7 +2833,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>159</v>
       </c>
@@ -2838,7 +2851,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>162</v>
       </c>
@@ -2856,7 +2869,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>165</v>
       </c>
@@ -2874,7 +2887,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>168</v>
       </c>
@@ -2892,7 +2905,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>171</v>
       </c>
@@ -2910,7 +2923,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>174</v>
       </c>
@@ -2928,7 +2941,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>177</v>
       </c>
@@ -2946,7 +2959,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>179</v>
       </c>
@@ -2964,7 +2977,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>182</v>
       </c>
@@ -2982,7 +2995,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>185</v>
       </c>
@@ -3000,7 +3013,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>188</v>
       </c>
@@ -3018,7 +3031,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>191</v>
       </c>
@@ -3036,7 +3049,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>194</v>
       </c>
@@ -3054,7 +3067,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>197</v>
       </c>
@@ -3072,7 +3085,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>200</v>
       </c>
@@ -3090,7 +3103,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>203</v>
       </c>
@@ -3108,7 +3121,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>206</v>
       </c>
@@ -3128,7 +3141,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>210</v>
       </c>
@@ -3146,7 +3159,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>213</v>
       </c>
@@ -3164,7 +3177,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>216</v>
       </c>
@@ -3182,7 +3195,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>219</v>
       </c>
@@ -3200,7 +3213,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>222</v>
       </c>
@@ -3220,7 +3233,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>226</v>
       </c>
@@ -3240,7 +3253,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>230</v>
       </c>
@@ -3260,7 +3273,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>234</v>
       </c>
@@ -3280,7 +3293,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>238</v>
       </c>
@@ -3300,7 +3313,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>242</v>
       </c>
@@ -3320,7 +3333,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>246</v>
       </c>
@@ -3340,7 +3353,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>250</v>
       </c>
@@ -3360,7 +3373,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>254</v>
       </c>
@@ -3380,7 +3393,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>18</v>
       </c>
@@ -3398,7 +3411,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>50</v>
       </c>
@@ -3416,7 +3429,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>67</v>
       </c>
@@ -3434,7 +3447,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>432</v>
       </c>
@@ -3452,7 +3465,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>421</v>
       </c>
@@ -3470,7 +3483,7 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>258</v>
       </c>
@@ -3490,7 +3503,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>262</v>
       </c>
@@ -3510,7 +3523,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>266</v>
       </c>
@@ -3530,7 +3543,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>270</v>
       </c>
@@ -3550,7 +3563,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>274</v>
       </c>
@@ -3570,7 +3583,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>278</v>
       </c>
@@ -3590,7 +3603,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>282</v>
       </c>
@@ -3610,7 +3623,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>286</v>
       </c>
@@ -3630,7 +3643,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>290</v>
       </c>
@@ -3650,7 +3663,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>297</v>
       </c>
@@ -3670,7 +3683,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>301</v>
       </c>
@@ -3690,7 +3703,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>304</v>
       </c>
@@ -3710,7 +3723,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>307</v>
       </c>
@@ -3730,7 +3743,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>440</v>
       </c>
@@ -3750,7 +3763,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>313</v>
       </c>
@@ -3770,7 +3783,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>317</v>
       </c>
@@ -3790,7 +3803,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>321</v>
       </c>
@@ -3810,7 +3823,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>325</v>
       </c>
@@ -3830,7 +3843,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>329</v>
       </c>
@@ -3850,7 +3863,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>333</v>
       </c>
@@ -3870,7 +3883,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>338</v>
       </c>
@@ -3890,7 +3903,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>33</v>
       </c>
@@ -3898,7 +3911,7 @@
         <v>34</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>398</v>
+        <v>481</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>35</v>
@@ -3908,7 +3921,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>44</v>
       </c>
@@ -3926,7 +3939,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>47</v>
       </c>
@@ -3944,7 +3957,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>82</v>
       </c>
@@ -3962,7 +3975,7 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>96</v>
       </c>
@@ -3980,7 +3993,7 @@
       <c r="G107" s="4"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>341</v>
       </c>
@@ -4000,7 +4013,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>345</v>
       </c>
@@ -4020,7 +4033,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>349</v>
       </c>
@@ -4040,7 +4053,7 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>353</v>
       </c>
@@ -4060,7 +4073,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>357</v>
       </c>
@@ -4080,7 +4093,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>361</v>
       </c>
@@ -4100,7 +4113,7 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>365</v>
       </c>
@@ -4120,7 +4133,7 @@
       <c r="G114" s="4"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>479</v>
       </c>
@@ -4138,7 +4151,7 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>77</v>
       </c>
@@ -4156,7 +4169,7 @@
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>155</v>
       </c>
@@ -4174,7 +4187,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>157</v>
       </c>
@@ -4192,7 +4205,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>369</v>
       </c>
@@ -4200,7 +4213,7 @@
         <v>370</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>94</v>
+        <v>480</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>371</v>
@@ -4212,7 +4225,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>373</v>
       </c>
@@ -4232,7 +4245,7 @@
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>376</v>
       </c>
@@ -4252,7 +4265,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>380</v>
       </c>
@@ -4272,7 +4285,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>384</v>
       </c>
@@ -4292,7 +4305,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>388</v>
       </c>
@@ -4312,7 +4325,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>392</v>
       </c>
@@ -4332,7 +4345,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>39</v>
       </c>
@@ -4350,7 +4363,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>336</v>
       </c>
@@ -5242,7 +5255,13 @@
     <row r="999" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:H127">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="공포"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>

--- a/data/노래 라벨링 감정 7개.xlsx
+++ b/data/노래 라벨링 감정 7개.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ED_up\AI_Ediary\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\S\AI_Diary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="149">
   <si>
     <t>제목</t>
   </si>
@@ -50,57 +50,21 @@
     <t>플레이리스트 이름</t>
   </si>
   <si>
-    <t>out-in</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
     <t>공포</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/6SLVbgNTlj8</t>
-  </si>
-  <si>
     <t>https://www.music-flo.com/detail/channel/nhhyz</t>
   </si>
   <si>
     <t>불안한 마음을 재워주는 편안한 팝</t>
   </si>
   <si>
-    <t>Wolf</t>
-  </si>
-  <si>
-    <t>Big Thief (빅 띠프)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/A4pMsBrPdgg</t>
-  </si>
-  <si>
     <t>https://www.music-flo.com/detail/channel/nzanz</t>
   </si>
   <si>
     <t>마음을 안정시켜주는 편안한 노래</t>
   </si>
   <si>
-    <t>Baby Blue</t>
-  </si>
-  <si>
-    <t>King Krule</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/6XJQXH_cmcY</t>
-  </si>
-  <si>
-    <t>Amoureux De Vous</t>
-  </si>
-  <si>
-    <t>Lesneu</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/xoaS4wwBryo</t>
-  </si>
-  <si>
     <t>당황</t>
   </si>
   <si>
@@ -110,33 +74,12 @@
     <t>차분하게 릴랙스, 나를 진정시켜줄 보이스</t>
   </si>
   <si>
-    <t>To Me</t>
-  </si>
-  <si>
-    <t>Alina Baraz</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/IrbN3ZbW-TY</t>
-  </si>
-  <si>
     <t>https://www.music-flo.com/detail/channel/nllhy</t>
   </si>
   <si>
     <t>마음을 달래주는 이별 알앤비</t>
   </si>
   <si>
-    <t>지소울 (GSoul)</t>
-  </si>
-  <si>
-    <t>Angel 2 Me (duet with Jeff Bernat)</t>
-  </si>
-  <si>
-    <t>맥케이</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/5LWpOAoZX3c</t>
-  </si>
-  <si>
     <t>분노</t>
   </si>
   <si>
@@ -146,48 +89,21 @@
     <t>내 안의 분노를 제어할 수 없을 때</t>
   </si>
   <si>
-    <t>우주를 건너</t>
-  </si>
-  <si>
     <t>백예린 (Yerin Baek)</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/cQuqs2LrXbo</t>
-  </si>
-  <si>
     <t>https://www.music-flo.com/detail/channel/nydey</t>
   </si>
   <si>
     <t>화를 다스리는 마인드 컨트롤 뮤직</t>
   </si>
   <si>
-    <t>Angel (Feat.태연)</t>
-  </si>
-  <si>
     <t>https://www.music-flo.com/detail/channel/enhoo</t>
   </si>
   <si>
     <t>상사한테 혼나고 듣고 싶은 힙합</t>
   </si>
   <si>
-    <t>Fallin' (feat. 일리닛)</t>
-  </si>
-  <si>
-    <t>폴킴</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/A1oQ6htI1cU</t>
-  </si>
-  <si>
-    <t>그놈의 별 (With 조정치)</t>
-  </si>
-  <si>
-    <t>수란 (SURAN)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/BYtt59bmHg8</t>
-  </si>
-  <si>
     <t>슬픔</t>
   </si>
   <si>
@@ -197,24 +113,12 @@
     <t>울고 싶을 때 듣는 발라드 명곡</t>
   </si>
   <si>
-    <t>정바스</t>
-  </si>
-  <si>
     <t>https://www.music-flo.com/detail/channel/nlhal</t>
   </si>
   <si>
     <t>힘들 때 위로가 되어주는 노래</t>
   </si>
   <si>
-    <t>잊을만하면</t>
-  </si>
-  <si>
-    <t>Crush</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/13xy-si_o6c</t>
-  </si>
-  <si>
     <t>https://www.music-flo.com/detail/channel/nlndh</t>
   </si>
   <si>
@@ -230,12 +134,6 @@
     <t>https://www.youtube.com/embed/XUR8QByF2As</t>
   </si>
   <si>
-    <t>어떻게 지내</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/FNnYIIdTBhQ</t>
-  </si>
-  <si>
     <t>기쁨</t>
   </si>
   <si>
@@ -245,45 +143,18 @@
     <t>흥얼거리며 일하고 싶을 때</t>
   </si>
   <si>
-    <t>Walking In The Moonlight (feat. 다원, Lazier)</t>
-  </si>
-  <si>
-    <t>서교동의 밤</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/8uuWkeZ3mAI</t>
-  </si>
-  <si>
     <t>https://www.music-flo.com/detail/channel/nzhiz</t>
   </si>
   <si>
     <t>아침에 출근하며 듣는 상쾌한 케이팝</t>
   </si>
   <si>
-    <t>눈 (Feat. 이문세)</t>
-  </si>
-  <si>
-    <t>Zion.T</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/fiGSDywrX1Y</t>
-  </si>
-  <si>
     <t>https://www.music-flo.com/detail/channel/inoii</t>
   </si>
   <si>
     <t>행복한 상상은 이 노래로 시작해</t>
   </si>
   <si>
-    <t>마법 (Feat. Rani)</t>
-  </si>
-  <si>
-    <t>김호연</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/KLp4Y8N5TNA</t>
-  </si>
-  <si>
     <t>차분</t>
   </si>
   <si>
@@ -293,150 +164,12 @@
     <t>차분한 휴식이 필요할 때 듣는 명상 클래식</t>
   </si>
   <si>
-    <t>Talking To The Moon (Acoustic Piano ver.)</t>
-  </si>
-  <si>
-    <t>Bruno Mars</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/xGJjht8Xdoc</t>
-  </si>
-  <si>
-    <t>Make You Feel My Love</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/1j7ecLPAH5I</t>
-  </si>
-  <si>
     <t>불안</t>
   </si>
   <si>
     <t>차분하게 릴랙스, 나를 진정 시켜줄 보이스</t>
   </si>
   <si>
-    <t>Your Song</t>
-  </si>
-  <si>
-    <t>Lady GaGa</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/OAuIY_eaL5U</t>
-  </si>
-  <si>
-    <t>그리워요 (Girlfriend)</t>
-  </si>
-  <si>
-    <t>헨리 (HENRY)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/cknk6-RFGSA</t>
-  </si>
-  <si>
-    <t>잊어가지마 (Prod. 로코베리)</t>
-  </si>
-  <si>
-    <t>윤미래</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/K6gEaJTHN4M</t>
-  </si>
-  <si>
-    <t>Morning</t>
-  </si>
-  <si>
-    <t>마마무 (Mamamoo)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/9wDeGgFiYks</t>
-  </si>
-  <si>
-    <t>너의 흔적에 (You're Not)</t>
-  </si>
-  <si>
-    <t>베이빌론 (Babylon)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/yCHCkZs-shE</t>
-  </si>
-  <si>
-    <t>지겨워</t>
-  </si>
-  <si>
-    <t>어반자카파</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/cssrX7UtuII</t>
-  </si>
-  <si>
-    <t>Rain &amp; Cry</t>
-  </si>
-  <si>
-    <t>15&amp;</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/WvWrcAGgzBc</t>
-  </si>
-  <si>
-    <t>이별시작</t>
-  </si>
-  <si>
-    <t>나얼</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/iHHwXDDZV1g</t>
-  </si>
-  <si>
-    <t>장마</t>
-  </si>
-  <si>
-    <t>정인</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/_7E9cw1OiNw</t>
-  </si>
-  <si>
-    <t>내가 더 나빠</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/ejJn0llPeu4</t>
-  </si>
-  <si>
-    <t>헤어지는 중</t>
-  </si>
-  <si>
-    <t>펀치 (Punch)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/SEak8-7fSwM</t>
-  </si>
-  <si>
-    <t>SOFA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/DbryieXEKIY</t>
-  </si>
-  <si>
-    <t>polaroid</t>
-  </si>
-  <si>
-    <t>결</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/KFDjtkRCD20</t>
-  </si>
-  <si>
-    <t>후회해 (Duet. 헤이즈)</t>
-  </si>
-  <si>
-    <t>박진영</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/TXVw9uoDqGU</t>
-  </si>
-  <si>
     <t>Into the Unknown (Panic! At The Disco Version)</t>
   </si>
   <si>
@@ -494,18 +227,6 @@
     <t>https://www.youtube.com/embed/qGjAWJ2zWWI</t>
   </si>
   <si>
-    <t>선물같은 포근함</t>
-  </si>
-  <si>
-    <t>From Paris (프롬패리스)</t>
-  </si>
-  <si>
-    <t>Peaceful Tides</t>
-  </si>
-  <si>
-    <t>M Relaxing</t>
-  </si>
-  <si>
     <t>Went Missing</t>
   </si>
   <si>
@@ -602,42 +323,6 @@
     <t>https://www.youtube.com/embed/f-l5Rxw6YMY</t>
   </si>
   <si>
-    <t>어디에도</t>
-  </si>
-  <si>
-    <t>엠씨더맥스(M.C the MAX)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/lbLeVCAqd7Y</t>
-  </si>
-  <si>
-    <t>너를 너를 너를</t>
-  </si>
-  <si>
-    <t>플라이 투더 스카이</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/P3pUjPdoCCI</t>
-  </si>
-  <si>
-    <t>오늘 헤어 졌어요</t>
-  </si>
-  <si>
-    <t>윤하</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/gcgNaERtD90</t>
-  </si>
-  <si>
-    <t>추억은 사랑을 닮아</t>
-  </si>
-  <si>
-    <t>박효신</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/IokjBJ7bntU</t>
-  </si>
-  <si>
     <t>이별택시</t>
   </si>
   <si>
@@ -647,270 +332,39 @@
     <t>https://www.youtube.com/embed/wxxb311BWRM</t>
   </si>
   <si>
-    <t>첫눈처럼 너에게 가겠다</t>
-  </si>
-  <si>
-    <t>에일리(Ailee)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/gWZos5_TgVI</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/embed/</t>
   </si>
   <si>
-    <t>그립고 그립고 그립다</t>
-  </si>
-  <si>
-    <t>케이윌</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/mI__QoZnYPo</t>
-  </si>
-  <si>
-    <t>거짓말 거짓말 거짓말</t>
-  </si>
-  <si>
-    <t>이적</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/2TK0eL50EkA</t>
-  </si>
-  <si>
-    <t>이 바보야</t>
-  </si>
-  <si>
-    <t>정승환</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/4TUvt0aegaA</t>
-  </si>
-  <si>
-    <t>사랑안해</t>
-  </si>
-  <si>
-    <t>백지영</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/866QMSFzzmo</t>
-  </si>
-  <si>
-    <t>오늘 뭐 했는지 말해봐</t>
-  </si>
-  <si>
-    <t>권진아</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/1eKVzAnBWF8</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=NOvgWxJmAzk</t>
   </si>
   <si>
-    <t>끝사랑</t>
-  </si>
-  <si>
-    <t>김범수</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/N6ndPiblDPg</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=DkLRNcMUTgc</t>
   </si>
   <si>
-    <t>너는 어땠을까</t>
-  </si>
-  <si>
-    <t>노을</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/Nso7yIr8QVM</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Nso7yIr8QVM</t>
   </si>
   <si>
-    <t>마음아 미안해</t>
-  </si>
-  <si>
-    <t>백아연</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/4VaJ_UNMCQk</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=4VaJ_UNMCQk</t>
   </si>
   <si>
-    <t>내일을 묻는다</t>
-  </si>
-  <si>
-    <t>제이레빗 (J Rabbit)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/xR2BrtoBfjk</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=xR2BrtoBfjk</t>
   </si>
   <si>
-    <t>엄마</t>
-  </si>
-  <si>
-    <t>라디 (Ra. D)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/xRHPRcivWrg</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=xRHPRcivWrg</t>
   </si>
   <si>
-    <t>한숨</t>
-  </si>
-  <si>
-    <t>이하이</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/5iSlfF8TQ9k</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=5iSlfF8TQ9k</t>
   </si>
   <si>
-    <t>꽃길 (Prod. By Zico)</t>
-  </si>
-  <si>
-    <t>김세정</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/OnnzqzlcCaY</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=vUr84Cyfe7Q</t>
   </si>
   <si>
-    <t>무릎</t>
-  </si>
-  <si>
-    <t>아이유 (IU)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/Rh5ok0ljrzA</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=SfeaTW4bcAw</t>
   </si>
   <si>
-    <t>ICY</t>
-  </si>
-  <si>
-    <t>ITZY (있지)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/WAHuBH8WFVY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WAHuBH8WFVY</t>
-  </si>
-  <si>
-    <t>BUNGEE (Fall in Love)</t>
-  </si>
-  <si>
-    <t>오마이걸 (OH MY GIRL)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/QTD_yleCK9Y</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=60K1Zf1IGcM</t>
-  </si>
-  <si>
-    <t>Snapping</t>
-  </si>
-  <si>
-    <t>청하</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/deV_DmHKwjc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QM8HngracYY</t>
-  </si>
-  <si>
-    <t>FANCY</t>
-  </si>
-  <si>
     <t>TWICE (트와이스)</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/kOHB85vDuow</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mIXR-7u2Kas</t>
-  </si>
-  <si>
-    <t>날라리 (LALALAY)</t>
-  </si>
-  <si>
-    <t>선미</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/LrggmyDhWBo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XeA8L7dOmpk</t>
-  </si>
-  <si>
-    <t>SHINING★STAR</t>
-  </si>
-  <si>
-    <t>러블리즈</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/01iEEK6j30E</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=01iEEK6j30E</t>
-  </si>
-  <si>
-    <t>열대야 (Fever)</t>
-  </si>
-  <si>
-    <t>여자친구 (GFRIEND)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/Zll7O1v63aY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7gcc__ASPMg</t>
-  </si>
-  <si>
-    <t>드라마틱 (Dramatic)</t>
-  </si>
-  <si>
-    <t>BVNDIT (밴디트)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/Ao9ET61y4Ow</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ncZJhXLN6cc</t>
-  </si>
-  <si>
-    <t>비올레타</t>
-  </si>
-  <si>
-    <t>IZ*ONE (아이즈원)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/6eEZ7DJMzuk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6di5tkf5oYw</t>
-  </si>
-  <si>
     <t>Kill This Love</t>
   </si>
   <si>
@@ -920,312 +374,97 @@
     <t>https://www.youtube.com/embed/2S24-y0Ij3Y</t>
   </si>
   <si>
-    <t>BLUE</t>
-  </si>
-  <si>
-    <t>하성운</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/Wiq0J7_jHI8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-uawdL4Z8-w</t>
-  </si>
-  <si>
-    <t>달라달라</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/pNfTK39k55U</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uzt5RZKi3iI</t>
-  </si>
-  <si>
     <t>KNOCK KNOCK</t>
   </si>
   <si>
     <t>https://www.youtube.com/embed/8A2t_tAjMz8</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=zrLRWyQM0eg</t>
-  </si>
-  <si>
-    <t>Ah-Choo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/DEd8ED2FdAg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=v7qisJ_KuYI</t>
-  </si>
-  <si>
-    <t>GOT7 (갓세븐)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/O57jr1oZDIw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZBzdALzo2Yk</t>
-  </si>
-  <si>
-    <t>행복한 날들이었다</t>
-  </si>
-  <si>
-    <t>DAY6 (데이식스)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/1nk5O__ALI8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gMR2LnlLFLw</t>
-  </si>
-  <si>
-    <t>뿜뿜</t>
-  </si>
-  <si>
-    <t>모모랜드 (MOMOLAND)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/JQGRg8XBnB4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cMl9_IixsGk</t>
-  </si>
-  <si>
-    <t>니가 불어와(Crazy sexy cool)</t>
-  </si>
-  <si>
-    <t>아스트로 (ASTRO)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/zp-Bl1xXGoU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QEFt08q_F7Q</t>
-  </si>
-  <si>
-    <t>오랜 날 오랜 밤</t>
-  </si>
-  <si>
-    <t>AKMU (악뮤)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/wEQpfil0IYA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wEQpfil0IYA</t>
-  </si>
-  <si>
-    <t>행복의 주문</t>
-  </si>
-  <si>
-    <t>커피소년</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/YpdJpYIl168</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eTeRPMU5l2Y</t>
-  </si>
-  <si>
-    <t>BE THERE</t>
-  </si>
-  <si>
-    <t>CHEEZE (치즈)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GmPpzVZ7Wp0</t>
-  </si>
-  <si>
     <t>그건 아마 우리의 잘못은 아닐거야</t>
   </si>
   <si>
     <t>https://www.youtube.com/embed/yWP--1gsr20</t>
   </si>
   <si>
-    <t>주문을 걸어</t>
-  </si>
-  <si>
-    <t>박혜경</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MaVmYzOvtDg</t>
-  </si>
-  <si>
-    <t>classic mix</t>
-  </si>
-  <si>
-    <t>Ludovico Einaudi</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/_DClKudgeD4</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=04rnIete90I</t>
   </si>
   <si>
-    <t>classic mix1</t>
-  </si>
-  <si>
-    <t>Ola Gjeilo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/jYH-Q1E7Y3E</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=RKiS7KNf8dg</t>
   </si>
   <si>
-    <t>classic mix2</t>
-  </si>
-  <si>
-    <t>Joep Beving</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/ORXzGJxAsVs</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=KkJBlOpeV88</t>
   </si>
   <si>
-    <t>classic mix3</t>
-  </si>
-  <si>
-    <t>Sebastian Plano</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/Q-iEfzaikBI</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=i3i9PwXL39U</t>
   </si>
   <si>
-    <t>classic mix4</t>
-  </si>
-  <si>
-    <t>Lambert</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/PoTY75REP-I</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=IKiKZwE1l8c</t>
   </si>
   <si>
-    <t>classic mix5</t>
-  </si>
-  <si>
-    <t>Michael Forster</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/7Sw3WGogkNU</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=vs-sPCCWCoU</t>
   </si>
   <si>
-    <t>classic mix6</t>
-  </si>
-  <si>
-    <t>Rob Simonsen</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/0zab30B7eEs</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=NUIxtVeL7fA</t>
   </si>
   <si>
-    <t>월광소나타</t>
-  </si>
-  <si>
-    <t>베토벤</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/lQ8IcWDOpKo</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=HaMq2nn5ac0</t>
   </si>
   <si>
-    <t>Close To You</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=EXEAeae1MaU</t>
   </si>
   <si>
-    <t>lovely</t>
-  </si>
-  <si>
-    <t>Billie Eilish &amp; Khalid</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/OBJ8JALSEXk</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=yBbNGXnFcrc</t>
   </si>
   <si>
-    <t>Ordinary People</t>
-  </si>
-  <si>
-    <t>John Legend</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/hIqwBsn-KVE</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=PIh07c_P4hc</t>
   </si>
   <si>
-    <t>Hero</t>
-  </si>
-  <si>
-    <t>Mariah Carey</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/NpaNUIeTzQo</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=jnIa8USlLsc</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Ruben Studdard</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/v02WlmBKUPA</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=LwIKNloKhGk</t>
   </si>
   <si>
-    <t>Speechless</t>
-  </si>
-  <si>
-    <t>Naomi Scott</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/E5m7E9W0u3c</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=ighFo0i0nrA</t>
   </si>
   <si>
-    <t>No Answer</t>
+    <t>공포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/DFsTvDaz5bA</t>
+    <t>https://www.youtube.com/embed/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기쁨</t>
+    <t>https://www.youtube.com/embed/MOG7BexjPjM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFNT4vPnHNU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민초의난</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ItePclkExO8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/TFMMlsdFuc4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/792jeZ08h94</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분노</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1233,246 +472,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기쁨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬픔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/7e0bLknKon8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/a_HrXfWsThU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/8UUDyQyuvwI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/Pqmcumsnqm0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Red Sun</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기쁨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/MOG7BexjPjM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/cJq41cQC9U8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/gMKsrqm_s6U</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>당황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silent Hill 2 OST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Akira Yamaoka </t>
-  </si>
-  <si>
-    <t>Erik Margolin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kevin Macleod</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/em0PNkNMEVg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Falling</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그루잠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기쁨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기쁨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Come Play with me</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/HMIs9KDPQQY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gaia in Fog</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/4rUfSJuPzAs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7th Element</t>
-  </si>
-  <si>
-    <t>Vitas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFNT4vPnHNU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decication</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>민초의난</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/ItePclkExO8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/TFMMlsdFuc4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/H0psxkfFgrI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/0HmeJ_V30XM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/792jeZ08h94</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>분노</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하드캐리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/EbKHsEUAgHA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불안</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/MaVmYzOvtDg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/VvyD2VKfR0Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>horrible music BGM mix1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mix1</t>
-  </si>
-  <si>
-    <t>horrible music BGM mix2</t>
-  </si>
-  <si>
-    <t>mix2</t>
-  </si>
-  <si>
-    <t>horrible music BGM mix3</t>
-  </si>
-  <si>
-    <t>mix3</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/GVdpZsAal8M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ghost Processional</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dan Bodan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.youtube.com/embed/FFNT4vPnHNU</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/RKBJVdjOHUY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Dusty Attic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/_6NIAu3JW-g</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/kRwyimMLJkw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/7iVudI95Ebc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/B5-X_3_Kpww</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/FFNT4vPnHNU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MC Sniper</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1481,79 +484,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Vitas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>창귀(민속 신앙 범귀신)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>안예은</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미궁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>황병기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림캐쳐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저주인형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>빅스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>공포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>챈슬러&amp;태연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>붙어있자 (Feat. Jozu)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불안</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기쁨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공포</t>
+    <t>저주인형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1561,7 +496,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1590,13 +525,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="한컴 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="한컴 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1642,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1660,12 +588,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1887,7 +809,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1927,444 +849,444 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>133</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>133</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>465</v>
+        <v>148</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>466</v>
+        <v>147</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>467</v>
+        <v>133</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>406</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>133</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>133</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>396</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>407</v>
+        <v>135</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>468</v>
+        <v>148</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>469</v>
+        <v>147</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>467</v>
+        <v>133</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>405</v>
+        <v>135</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>409</v>
+        <v>148</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>470</v>
+        <v>147</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>467</v>
+        <v>133</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>455</v>
+        <v>135</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>471</v>
+        <v>148</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>472</v>
+        <v>147</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>473</v>
+        <v>133</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>411</v>
+        <v>135</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>445</v>
+        <v>148</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>446</v>
+        <v>147</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>474</v>
+        <v>133</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>458</v>
+        <v>135</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>447</v>
+        <v>148</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>448</v>
+        <v>147</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>475</v>
+        <v>133</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>412</v>
+        <v>135</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>449</v>
+        <v>148</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>450</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>467</v>
+        <v>133</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>413</v>
+        <v>135</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>61</v>
+        <v>133</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>415</v>
+        <v>148</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>416</v>
+        <v>147</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>467</v>
+        <v>133</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>451</v>
+        <v>135</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>456</v>
+        <v>148</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>417</v>
+        <v>147</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>476</v>
+        <v>133</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>459</v>
+        <v>135</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>74</v>
+        <v>133</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>452</v>
+        <v>148</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>419</v>
+        <v>147</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>477</v>
+        <v>133</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>457</v>
+        <v>135</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>425</v>
+        <v>148</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>419</v>
+        <v>147</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>404</v>
+        <v>133</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>426</v>
+        <v>135</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>427</v>
+        <v>148</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>453</v>
+        <v>147</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>467</v>
+        <v>133</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>428</v>
+        <v>135</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2373,40 +1295,40 @@
     </row>
     <row r="22" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>430</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>460</v>
+        <v>136</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -2415,16 +1337,16 @@
     </row>
     <row r="24" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -2433,19 +1355,19 @@
     </row>
     <row r="25" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>408</v>
+        <v>134</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2453,16 +1375,16 @@
     </row>
     <row r="26" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -2471,19 +1393,19 @@
     </row>
     <row r="27" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>454</v>
+        <v>144</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2491,36 +1413,36 @@
     </row>
     <row r="28" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>431</v>
+        <v>137</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -2529,16 +1451,16 @@
     </row>
     <row r="30" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -2547,16 +1469,16 @@
     </row>
     <row r="31" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2565,16 +1487,16 @@
     </row>
     <row r="32" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -2583,16 +1505,16 @@
     </row>
     <row r="33" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2601,16 +1523,16 @@
     </row>
     <row r="34" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -2619,16 +1541,16 @@
     </row>
     <row r="35" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -2637,16 +1559,16 @@
     </row>
     <row r="36" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -2655,16 +1577,16 @@
     </row>
     <row r="37" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>414</v>
+        <v>136</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -2673,16 +1595,16 @@
     </row>
     <row r="38" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>433</v>
+        <v>138</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>462</v>
+        <v>145</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>463</v>
+        <v>146</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2691,16 +1613,16 @@
     </row>
     <row r="39" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>434</v>
+        <v>139</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2709,16 +1631,16 @@
     </row>
     <row r="40" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2727,16 +1649,16 @@
     </row>
     <row r="41" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2745,16 +1667,16 @@
     </row>
     <row r="42" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2763,16 +1685,16 @@
     </row>
     <row r="43" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2781,16 +1703,16 @@
     </row>
     <row r="44" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>294</v>
+        <v>112</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>295</v>
+        <v>113</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>439</v>
+        <v>142</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2799,16 +1721,16 @@
     </row>
     <row r="45" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>435</v>
+        <v>140</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -2817,16 +1739,16 @@
     </row>
     <row r="46" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2835,16 +1757,16 @@
     </row>
     <row r="47" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2853,16 +1775,16 @@
     </row>
     <row r="48" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2871,16 +1793,16 @@
     </row>
     <row r="49" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2889,16 +1811,16 @@
     </row>
     <row r="50" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2907,16 +1829,16 @@
     </row>
     <row r="51" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2925,16 +1847,16 @@
     </row>
     <row r="52" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2943,16 +1865,16 @@
     </row>
     <row r="53" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>438</v>
+        <v>141</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2961,16 +1883,16 @@
     </row>
     <row r="54" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -2979,16 +1901,16 @@
     </row>
     <row r="55" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2997,16 +1919,16 @@
     </row>
     <row r="56" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -3015,16 +1937,16 @@
     </row>
     <row r="57" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -3033,16 +1955,16 @@
     </row>
     <row r="58" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -3051,16 +1973,16 @@
     </row>
     <row r="59" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -3069,16 +1991,16 @@
     </row>
     <row r="60" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -3087,16 +2009,16 @@
     </row>
     <row r="61" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -3105,16 +2027,16 @@
     </row>
     <row r="62" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -3123,19 +2045,19 @@
     </row>
     <row r="63" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -3143,16 +2065,16 @@
     </row>
     <row r="64" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -3161,16 +2083,16 @@
     </row>
     <row r="65" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>214</v>
+        <v>99</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -3179,16 +2101,16 @@
     </row>
     <row r="66" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -3197,16 +2119,16 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -3215,19 +2137,19 @@
     </row>
     <row r="68" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>223</v>
+        <v>99</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>224</v>
+        <v>100</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3235,19 +2157,19 @@
     </row>
     <row r="69" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>228</v>
+        <v>100</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -3255,19 +2177,19 @@
     </row>
     <row r="70" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -3275,19 +2197,19 @@
     </row>
     <row r="71" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -3295,19 +2217,19 @@
     </row>
     <row r="72" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>239</v>
+        <v>99</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -3315,19 +2237,19 @@
     </row>
     <row r="73" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>242</v>
+        <v>98</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>245</v>
+        <v>107</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -3335,39 +2257,39 @@
     </row>
     <row r="74" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>247</v>
+        <v>99</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>249</v>
+        <v>108</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>250</v>
+      <c r="A75" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>252</v>
+        <v>100</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>253</v>
+        <v>109</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -3375,19 +2297,19 @@
     </row>
     <row r="76" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>255</v>
+        <v>99</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -3395,16 +2317,16 @@
     </row>
     <row r="77" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>401</v>
+        <v>25</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -3413,16 +2335,16 @@
     </row>
     <row r="78" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>401</v>
+        <v>25</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -3431,16 +2353,16 @@
     </row>
     <row r="79" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>401</v>
+        <v>25</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -3449,756 +2371,714 @@
     </row>
     <row r="80" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>432</v>
+        <v>98</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>464</v>
+        <v>99</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>461</v>
+        <v>25</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>422</v>
+        <v>115</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>420</v>
+        <v>35</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>261</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E82" s="4"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>265</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E83" s="4"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>266</v>
+        <v>115</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>269</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E84" s="4"/>
       <c r="F84" s="3"/>
       <c r="G84" s="4"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>270</v>
+        <v>115</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>271</v>
+        <v>111</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>273</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E85" s="4"/>
       <c r="F85" s="3"/>
       <c r="G85" s="4"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>277</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E86" s="4"/>
       <c r="F86" s="3"/>
       <c r="G86" s="4"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>278</v>
+        <v>115</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>279</v>
+        <v>111</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>281</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E87" s="4"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>282</v>
+        <v>115</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>283</v>
+        <v>111</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>285</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E88" s="4"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>286</v>
+        <v>115</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>287</v>
+        <v>111</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>289</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E89" s="4"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>290</v>
+        <v>115</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>291</v>
+        <v>111</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>293</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E90" s="4"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>297</v>
+        <v>115</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>298</v>
+        <v>111</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>300</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E91" s="4"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>301</v>
+        <v>115</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>303</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E92" s="4"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>304</v>
+        <v>115</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>271</v>
+        <v>111</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>306</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E93" s="4"/>
       <c r="F93" s="3"/>
       <c r="G93" s="4"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>307</v>
+        <v>115</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>279</v>
+        <v>111</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>309</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E94" s="4"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>440</v>
+        <v>115</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>310</v>
+        <v>111</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>312</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E95" s="4"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>313</v>
+        <v>115</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>314</v>
+        <v>111</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>316</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E96" s="4"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>317</v>
+        <v>115</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>318</v>
+        <v>111</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>320</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E97" s="4"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>321</v>
+        <v>115</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>322</v>
+        <v>111</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>324</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E98" s="4"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>325</v>
+        <v>115</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>326</v>
+        <v>111</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>328</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E99" s="4"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>330</v>
+        <v>111</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>332</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E100" s="4"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>333</v>
+        <v>115</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>334</v>
+        <v>111</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>335</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E101" s="4"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>338</v>
+        <v>115</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>339</v>
+        <v>111</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>340</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E102" s="4"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>481</v>
+        <v>35</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>478</v>
+        <v>111</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>397</v>
+        <v>35</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>400</v>
+        <v>35</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>424</v>
+        <v>35</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>398</v>
+        <v>35</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="4"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>341</v>
+        <v>115</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>342</v>
+        <v>111</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>343</v>
+        <v>116</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>344</v>
+        <v>119</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>345</v>
+        <v>115</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>346</v>
+        <v>111</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>347</v>
+        <v>116</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>348</v>
+        <v>120</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>349</v>
+        <v>115</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>350</v>
+        <v>111</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>351</v>
+        <v>116</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>352</v>
+        <v>121</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>353</v>
+        <v>115</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>354</v>
+        <v>111</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>355</v>
+        <v>116</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>356</v>
+        <v>122</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>357</v>
+        <v>115</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>358</v>
+        <v>111</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>359</v>
+        <v>116</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>360</v>
+        <v>123</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>361</v>
+        <v>115</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>362</v>
+        <v>111</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>363</v>
+        <v>116</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>364</v>
+        <v>124</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>365</v>
+        <v>115</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>366</v>
+        <v>111</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>367</v>
+        <v>116</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>368</v>
+        <v>125</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="4"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>479</v>
+        <v>115</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>403</v>
+        <v>35</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>418</v>
+        <v>35</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>436</v>
+        <v>35</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>437</v>
+        <v>35</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
@@ -4207,19 +3087,19 @@
     </row>
     <row r="119" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>369</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>370</v>
+        <v>20</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>480</v>
+        <v>143</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>371</v>
+        <v>118</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>372</v>
+        <v>126</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -4227,19 +3107,19 @@
     </row>
     <row r="120" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>373</v>
+        <v>117</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>444</v>
+        <v>143</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>375</v>
+        <v>127</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -4247,19 +3127,19 @@
     </row>
     <row r="121" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>376</v>
+        <v>117</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>377</v>
+        <v>20</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>378</v>
+        <v>118</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>379</v>
+        <v>128</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -4267,19 +3147,19 @@
     </row>
     <row r="122" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>380</v>
+        <v>117</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>382</v>
+        <v>118</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>383</v>
+        <v>129</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -4287,19 +3167,19 @@
     </row>
     <row r="123" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>384</v>
+        <v>117</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>385</v>
+        <v>20</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>386</v>
+        <v>118</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>387</v>
+        <v>130</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -4307,19 +3187,19 @@
     </row>
     <row r="124" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>388</v>
+        <v>117</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>389</v>
+        <v>20</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>390</v>
+        <v>118</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>391</v>
+        <v>131</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -4327,19 +3207,19 @@
     </row>
     <row r="125" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>392</v>
+        <v>117</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>393</v>
+        <v>20</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>394</v>
+        <v>118</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>395</v>
+        <v>132</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -4347,16 +3227,16 @@
     </row>
     <row r="126" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>399</v>
+        <v>143</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -4365,16 +3245,16 @@
     </row>
     <row r="127" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>336</v>
+        <v>117</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>442</v>
+        <v>143</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>337</v>
+        <v>118</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
@@ -5258,183 +4138,179 @@
   <autoFilter ref="A1:H127">
     <filterColumn colId="2">
       <filters>
-        <filter val="공포"/>
+        <filter val="기쁨"/>
+        <filter val="차분"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="D77" r:id="rId5"/>
-    <hyperlink ref="D5" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="D6" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="D7" r:id="rId10"/>
-    <hyperlink ref="D103" r:id="rId11"/>
-    <hyperlink ref="G8" r:id="rId12"/>
-    <hyperlink ref="D126" r:id="rId13"/>
-    <hyperlink ref="G9" r:id="rId14"/>
-    <hyperlink ref="G10" r:id="rId15"/>
-    <hyperlink ref="D105" r:id="rId16"/>
-    <hyperlink ref="D78" r:id="rId17"/>
-    <hyperlink ref="G12" r:id="rId18"/>
-    <hyperlink ref="D115" r:id="rId19"/>
-    <hyperlink ref="G13" r:id="rId20"/>
-    <hyperlink ref="D14" r:id="rId21"/>
-    <hyperlink ref="G14" r:id="rId22"/>
-    <hyperlink ref="D37" r:id="rId23"/>
-    <hyperlink ref="D79" r:id="rId24"/>
-    <hyperlink ref="G16" r:id="rId25"/>
-    <hyperlink ref="D17" r:id="rId26"/>
-    <hyperlink ref="G17" r:id="rId27"/>
-    <hyperlink ref="D116" r:id="rId28"/>
-    <hyperlink ref="G18" r:id="rId29"/>
-    <hyperlink ref="D106" r:id="rId30"/>
-    <hyperlink ref="D81" r:id="rId31"/>
-    <hyperlink ref="G20" r:id="rId32"/>
-    <hyperlink ref="D21" r:id="rId33"/>
-    <hyperlink ref="D22" r:id="rId34"/>
-    <hyperlink ref="G22" r:id="rId35"/>
-    <hyperlink ref="D107" r:id="rId36"/>
-    <hyperlink ref="D24" r:id="rId37"/>
-    <hyperlink ref="D25" r:id="rId38"/>
-    <hyperlink ref="D27" r:id="rId39"/>
-    <hyperlink ref="D28" r:id="rId40"/>
-    <hyperlink ref="D29" r:id="rId41"/>
-    <hyperlink ref="D30" r:id="rId42"/>
-    <hyperlink ref="D31" r:id="rId43"/>
-    <hyperlink ref="D32" r:id="rId44"/>
-    <hyperlink ref="D33" r:id="rId45"/>
-    <hyperlink ref="D34" r:id="rId46"/>
-    <hyperlink ref="D35" r:id="rId47"/>
-    <hyperlink ref="D36" r:id="rId48"/>
-    <hyperlink ref="D38" r:id="rId49"/>
-    <hyperlink ref="D39" r:id="rId50"/>
-    <hyperlink ref="D40" r:id="rId51"/>
-    <hyperlink ref="D41" r:id="rId52"/>
-    <hyperlink ref="D42" r:id="rId53"/>
-    <hyperlink ref="D43" r:id="rId54"/>
-    <hyperlink ref="D46" r:id="rId55"/>
-    <hyperlink ref="D117" r:id="rId56"/>
-    <hyperlink ref="D118" r:id="rId57"/>
-    <hyperlink ref="D47" r:id="rId58"/>
-    <hyperlink ref="D48" r:id="rId59"/>
-    <hyperlink ref="D49" r:id="rId60"/>
-    <hyperlink ref="D50" r:id="rId61"/>
-    <hyperlink ref="D51" r:id="rId62"/>
-    <hyperlink ref="D52" r:id="rId63"/>
-    <hyperlink ref="D53" r:id="rId64"/>
-    <hyperlink ref="D54" r:id="rId65"/>
-    <hyperlink ref="D55" r:id="rId66"/>
-    <hyperlink ref="D57" r:id="rId67"/>
-    <hyperlink ref="D58" r:id="rId68"/>
-    <hyperlink ref="D59" r:id="rId69"/>
-    <hyperlink ref="D60" r:id="rId70"/>
-    <hyperlink ref="D61" r:id="rId71"/>
-    <hyperlink ref="D62" r:id="rId72"/>
-    <hyperlink ref="E63" r:id="rId73"/>
-    <hyperlink ref="D65" r:id="rId74"/>
-    <hyperlink ref="D67" r:id="rId75"/>
-    <hyperlink ref="D68" r:id="rId76"/>
-    <hyperlink ref="E68" r:id="rId77"/>
-    <hyperlink ref="D69" r:id="rId78"/>
-    <hyperlink ref="E69" r:id="rId79"/>
-    <hyperlink ref="D70" r:id="rId80"/>
-    <hyperlink ref="D71" r:id="rId81"/>
-    <hyperlink ref="D72" r:id="rId82"/>
-    <hyperlink ref="E72" r:id="rId83"/>
-    <hyperlink ref="D73" r:id="rId84"/>
-    <hyperlink ref="E73" r:id="rId85"/>
-    <hyperlink ref="D74" r:id="rId86"/>
-    <hyperlink ref="E74" r:id="rId87"/>
-    <hyperlink ref="D75" r:id="rId88"/>
-    <hyperlink ref="E75" r:id="rId89"/>
-    <hyperlink ref="D76" r:id="rId90"/>
-    <hyperlink ref="E76" r:id="rId91"/>
-    <hyperlink ref="D82" r:id="rId92"/>
-    <hyperlink ref="E82" r:id="rId93"/>
-    <hyperlink ref="D83" r:id="rId94"/>
-    <hyperlink ref="E83" r:id="rId95"/>
-    <hyperlink ref="D84" r:id="rId96"/>
-    <hyperlink ref="E84" r:id="rId97"/>
-    <hyperlink ref="D85" r:id="rId98"/>
-    <hyperlink ref="E85" r:id="rId99"/>
-    <hyperlink ref="D86" r:id="rId100"/>
-    <hyperlink ref="E86" r:id="rId101"/>
-    <hyperlink ref="D87" r:id="rId102"/>
-    <hyperlink ref="E87" r:id="rId103"/>
-    <hyperlink ref="D88" r:id="rId104"/>
-    <hyperlink ref="E88" r:id="rId105"/>
-    <hyperlink ref="D89" r:id="rId106"/>
-    <hyperlink ref="E89" r:id="rId107"/>
-    <hyperlink ref="D90" r:id="rId108"/>
-    <hyperlink ref="E90" r:id="rId109"/>
-    <hyperlink ref="D44" r:id="rId110"/>
-    <hyperlink ref="D91" r:id="rId111"/>
-    <hyperlink ref="E91" r:id="rId112"/>
-    <hyperlink ref="D92" r:id="rId113"/>
-    <hyperlink ref="E92" r:id="rId114"/>
-    <hyperlink ref="D93" r:id="rId115"/>
-    <hyperlink ref="E93" r:id="rId116"/>
-    <hyperlink ref="D94" r:id="rId117"/>
-    <hyperlink ref="E94" r:id="rId118"/>
-    <hyperlink ref="D95" r:id="rId119"/>
-    <hyperlink ref="E95" r:id="rId120"/>
-    <hyperlink ref="D96" r:id="rId121"/>
-    <hyperlink ref="E96" r:id="rId122"/>
-    <hyperlink ref="D97" r:id="rId123"/>
-    <hyperlink ref="E97" r:id="rId124"/>
-    <hyperlink ref="D98" r:id="rId125"/>
-    <hyperlink ref="E98" r:id="rId126"/>
-    <hyperlink ref="D99" r:id="rId127"/>
-    <hyperlink ref="E99" r:id="rId128"/>
-    <hyperlink ref="D100" r:id="rId129"/>
-    <hyperlink ref="E100" r:id="rId130"/>
-    <hyperlink ref="D101" r:id="rId131"/>
-    <hyperlink ref="E101" r:id="rId132"/>
-    <hyperlink ref="D127" r:id="rId133"/>
-    <hyperlink ref="D102" r:id="rId134"/>
-    <hyperlink ref="E102" r:id="rId135"/>
-    <hyperlink ref="D108" r:id="rId136"/>
-    <hyperlink ref="E108" r:id="rId137"/>
-    <hyperlink ref="E109" r:id="rId138"/>
-    <hyperlink ref="E110" r:id="rId139"/>
-    <hyperlink ref="E111" r:id="rId140"/>
-    <hyperlink ref="E112" r:id="rId141"/>
-    <hyperlink ref="E113" r:id="rId142"/>
-    <hyperlink ref="E114" r:id="rId143"/>
-    <hyperlink ref="E119" r:id="rId144"/>
-    <hyperlink ref="E120" r:id="rId145"/>
-    <hyperlink ref="E121" r:id="rId146"/>
-    <hyperlink ref="E122" r:id="rId147"/>
-    <hyperlink ref="E123" r:id="rId148"/>
-    <hyperlink ref="E124" r:id="rId149"/>
-    <hyperlink ref="E125" r:id="rId150"/>
-    <hyperlink ref="D104" r:id="rId151"/>
-    <hyperlink ref="D11" r:id="rId152"/>
-    <hyperlink ref="D8" r:id="rId153"/>
-    <hyperlink ref="D9" r:id="rId154"/>
-    <hyperlink ref="E25" r:id="rId155"/>
-    <hyperlink ref="D10" r:id="rId156"/>
-    <hyperlink ref="D12" r:id="rId157"/>
-    <hyperlink ref="D13" r:id="rId158"/>
-    <hyperlink ref="D15" r:id="rId159"/>
-    <hyperlink ref="D16" r:id="rId160"/>
-    <hyperlink ref="D18" r:id="rId161"/>
-    <hyperlink ref="D19" r:id="rId162"/>
-    <hyperlink ref="D20" r:id="rId163"/>
-    <hyperlink ref="D23" r:id="rId164"/>
-    <hyperlink ref="E27" r:id="rId165"/>
-    <hyperlink ref="D80" r:id="rId166"/>
-    <hyperlink ref="D26" r:id="rId167"/>
-    <hyperlink ref="D45" r:id="rId168"/>
-    <hyperlink ref="D120" r:id="rId169"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G9" r:id="rId6"/>
+    <hyperlink ref="G10" r:id="rId7"/>
+    <hyperlink ref="G12" r:id="rId8"/>
+    <hyperlink ref="G13" r:id="rId9"/>
+    <hyperlink ref="G14" r:id="rId10"/>
+    <hyperlink ref="D37" r:id="rId11"/>
+    <hyperlink ref="G16" r:id="rId12"/>
+    <hyperlink ref="G17" r:id="rId13"/>
+    <hyperlink ref="G18" r:id="rId14"/>
+    <hyperlink ref="G20" r:id="rId15"/>
+    <hyperlink ref="G22" r:id="rId16"/>
+    <hyperlink ref="D38" r:id="rId17"/>
+    <hyperlink ref="D39" r:id="rId18"/>
+    <hyperlink ref="D40" r:id="rId19"/>
+    <hyperlink ref="D41" r:id="rId20"/>
+    <hyperlink ref="D42" r:id="rId21"/>
+    <hyperlink ref="D43" r:id="rId22"/>
+    <hyperlink ref="D46" r:id="rId23"/>
+    <hyperlink ref="D47" r:id="rId24"/>
+    <hyperlink ref="D48" r:id="rId25"/>
+    <hyperlink ref="D49" r:id="rId26"/>
+    <hyperlink ref="D50" r:id="rId27"/>
+    <hyperlink ref="D51" r:id="rId28"/>
+    <hyperlink ref="D52" r:id="rId29"/>
+    <hyperlink ref="D53" r:id="rId30"/>
+    <hyperlink ref="D54" r:id="rId31"/>
+    <hyperlink ref="D55" r:id="rId32"/>
+    <hyperlink ref="D57" r:id="rId33"/>
+    <hyperlink ref="E63" r:id="rId34"/>
+    <hyperlink ref="E68" r:id="rId35"/>
+    <hyperlink ref="E69" r:id="rId36"/>
+    <hyperlink ref="E72" r:id="rId37"/>
+    <hyperlink ref="E73" r:id="rId38"/>
+    <hyperlink ref="E74" r:id="rId39"/>
+    <hyperlink ref="E75" r:id="rId40"/>
+    <hyperlink ref="E76" r:id="rId41"/>
+    <hyperlink ref="D44" r:id="rId42"/>
+    <hyperlink ref="D81" r:id="rId43"/>
+    <hyperlink ref="D119" r:id="rId44"/>
+    <hyperlink ref="E108" r:id="rId45"/>
+    <hyperlink ref="E109" r:id="rId46"/>
+    <hyperlink ref="E110" r:id="rId47"/>
+    <hyperlink ref="E111" r:id="rId48"/>
+    <hyperlink ref="E112" r:id="rId49"/>
+    <hyperlink ref="E113" r:id="rId50"/>
+    <hyperlink ref="E114" r:id="rId51"/>
+    <hyperlink ref="E119" r:id="rId52"/>
+    <hyperlink ref="E120" r:id="rId53"/>
+    <hyperlink ref="E121" r:id="rId54"/>
+    <hyperlink ref="E122" r:id="rId55"/>
+    <hyperlink ref="E123" r:id="rId56"/>
+    <hyperlink ref="E124" r:id="rId57"/>
+    <hyperlink ref="E125" r:id="rId58"/>
+    <hyperlink ref="D45" r:id="rId59"/>
+    <hyperlink ref="D2" r:id="rId60"/>
+    <hyperlink ref="D3" r:id="rId61"/>
+    <hyperlink ref="D4" r:id="rId62"/>
+    <hyperlink ref="D5" r:id="rId63"/>
+    <hyperlink ref="D6" r:id="rId64"/>
+    <hyperlink ref="D7" r:id="rId65"/>
+    <hyperlink ref="D8" r:id="rId66"/>
+    <hyperlink ref="D9" r:id="rId67"/>
+    <hyperlink ref="D10" r:id="rId68"/>
+    <hyperlink ref="D11" r:id="rId69"/>
+    <hyperlink ref="D12" r:id="rId70"/>
+    <hyperlink ref="D13" r:id="rId71"/>
+    <hyperlink ref="D14" r:id="rId72"/>
+    <hyperlink ref="D15" r:id="rId73"/>
+    <hyperlink ref="D16" r:id="rId74"/>
+    <hyperlink ref="D17" r:id="rId75"/>
+    <hyperlink ref="D18" r:id="rId76"/>
+    <hyperlink ref="D19" r:id="rId77"/>
+    <hyperlink ref="D20" r:id="rId78"/>
+    <hyperlink ref="D82" r:id="rId79"/>
+    <hyperlink ref="D83" r:id="rId80"/>
+    <hyperlink ref="D84" r:id="rId81"/>
+    <hyperlink ref="D85" r:id="rId82"/>
+    <hyperlink ref="D86" r:id="rId83"/>
+    <hyperlink ref="D87" r:id="rId84"/>
+    <hyperlink ref="D88" r:id="rId85"/>
+    <hyperlink ref="D89" r:id="rId86"/>
+    <hyperlink ref="D90" r:id="rId87"/>
+    <hyperlink ref="D91" r:id="rId88"/>
+    <hyperlink ref="D92" r:id="rId89"/>
+    <hyperlink ref="D93" r:id="rId90"/>
+    <hyperlink ref="D94" r:id="rId91"/>
+    <hyperlink ref="D95" r:id="rId92"/>
+    <hyperlink ref="D96" r:id="rId93"/>
+    <hyperlink ref="D97" r:id="rId94"/>
+    <hyperlink ref="D98" r:id="rId95"/>
+    <hyperlink ref="D99" r:id="rId96"/>
+    <hyperlink ref="D100" r:id="rId97"/>
+    <hyperlink ref="D101" r:id="rId98"/>
+    <hyperlink ref="D102" r:id="rId99"/>
+    <hyperlink ref="D103" r:id="rId100"/>
+    <hyperlink ref="D104" r:id="rId101"/>
+    <hyperlink ref="D105" r:id="rId102"/>
+    <hyperlink ref="D106" r:id="rId103"/>
+    <hyperlink ref="D107" r:id="rId104"/>
+    <hyperlink ref="E27" r:id="rId105"/>
+    <hyperlink ref="E25" r:id="rId106"/>
+    <hyperlink ref="D21" r:id="rId107"/>
+    <hyperlink ref="D22" r:id="rId108"/>
+    <hyperlink ref="D23" r:id="rId109"/>
+    <hyperlink ref="D24" r:id="rId110"/>
+    <hyperlink ref="D25" r:id="rId111"/>
+    <hyperlink ref="D26" r:id="rId112"/>
+    <hyperlink ref="D27" r:id="rId113"/>
+    <hyperlink ref="D28" r:id="rId114"/>
+    <hyperlink ref="D29" r:id="rId115"/>
+    <hyperlink ref="D30" r:id="rId116"/>
+    <hyperlink ref="D31" r:id="rId117"/>
+    <hyperlink ref="D32" r:id="rId118"/>
+    <hyperlink ref="D33" r:id="rId119"/>
+    <hyperlink ref="D34" r:id="rId120"/>
+    <hyperlink ref="D35" r:id="rId121"/>
+    <hyperlink ref="D36" r:id="rId122"/>
+    <hyperlink ref="D120" r:id="rId123"/>
+    <hyperlink ref="D121" r:id="rId124"/>
+    <hyperlink ref="D122" r:id="rId125"/>
+    <hyperlink ref="D123" r:id="rId126"/>
+    <hyperlink ref="D124" r:id="rId127"/>
+    <hyperlink ref="D125" r:id="rId128"/>
+    <hyperlink ref="D126" r:id="rId129"/>
+    <hyperlink ref="D127" r:id="rId130"/>
+    <hyperlink ref="D58" r:id="rId131"/>
+    <hyperlink ref="D59" r:id="rId132"/>
+    <hyperlink ref="D60" r:id="rId133"/>
+    <hyperlink ref="D61" r:id="rId134"/>
+    <hyperlink ref="D62" r:id="rId135"/>
+    <hyperlink ref="D63" r:id="rId136"/>
+    <hyperlink ref="D64" r:id="rId137"/>
+    <hyperlink ref="D65" r:id="rId138"/>
+    <hyperlink ref="D66" r:id="rId139"/>
+    <hyperlink ref="D67" r:id="rId140"/>
+    <hyperlink ref="D68" r:id="rId141"/>
+    <hyperlink ref="D69" r:id="rId142"/>
+    <hyperlink ref="D70" r:id="rId143"/>
+    <hyperlink ref="D71" r:id="rId144"/>
+    <hyperlink ref="D72" r:id="rId145"/>
+    <hyperlink ref="D73" r:id="rId146"/>
+    <hyperlink ref="D74" r:id="rId147"/>
+    <hyperlink ref="D75" r:id="rId148"/>
+    <hyperlink ref="D76" r:id="rId149"/>
+    <hyperlink ref="D77" r:id="rId150"/>
+    <hyperlink ref="D78" r:id="rId151"/>
+    <hyperlink ref="D79" r:id="rId152"/>
+    <hyperlink ref="D80" r:id="rId153"/>
+    <hyperlink ref="D108" r:id="rId154"/>
+    <hyperlink ref="D109" r:id="rId155"/>
+    <hyperlink ref="D110" r:id="rId156"/>
+    <hyperlink ref="D111" r:id="rId157"/>
+    <hyperlink ref="D112" r:id="rId158"/>
+    <hyperlink ref="D113" r:id="rId159"/>
+    <hyperlink ref="D114" r:id="rId160"/>
+    <hyperlink ref="D115" r:id="rId161"/>
+    <hyperlink ref="D116" r:id="rId162"/>
+    <hyperlink ref="D117" r:id="rId163"/>
+    <hyperlink ref="D118" r:id="rId164"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId170"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId165"/>
 </worksheet>
 </file>
--- a/data/노래 라벨링 감정 7개.xlsx
+++ b/data/노래 라벨링 감정 7개.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\S\AI_Diary\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ED_up\AI_Ediary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="483">
   <si>
     <t>제목</t>
   </si>
@@ -50,21 +50,57 @@
     <t>플레이리스트 이름</t>
   </si>
   <si>
+    <t>out-in</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
     <t>공포</t>
   </si>
   <si>
+    <t>https://www.youtube.com/embed/6SLVbgNTlj8</t>
+  </si>
+  <si>
     <t>https://www.music-flo.com/detail/channel/nhhyz</t>
   </si>
   <si>
     <t>불안한 마음을 재워주는 편안한 팝</t>
   </si>
   <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Big Thief (빅 띠프)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/A4pMsBrPdgg</t>
+  </si>
+  <si>
     <t>https://www.music-flo.com/detail/channel/nzanz</t>
   </si>
   <si>
     <t>마음을 안정시켜주는 편안한 노래</t>
   </si>
   <si>
+    <t>Baby Blue</t>
+  </si>
+  <si>
+    <t>King Krule</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/6XJQXH_cmcY</t>
+  </si>
+  <si>
+    <t>Amoureux De Vous</t>
+  </si>
+  <si>
+    <t>Lesneu</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/xoaS4wwBryo</t>
+  </si>
+  <si>
     <t>당황</t>
   </si>
   <si>
@@ -74,12 +110,33 @@
     <t>차분하게 릴랙스, 나를 진정시켜줄 보이스</t>
   </si>
   <si>
+    <t>To Me</t>
+  </si>
+  <si>
+    <t>Alina Baraz</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/IrbN3ZbW-TY</t>
+  </si>
+  <si>
     <t>https://www.music-flo.com/detail/channel/nllhy</t>
   </si>
   <si>
     <t>마음을 달래주는 이별 알앤비</t>
   </si>
   <si>
+    <t>지소울 (GSoul)</t>
+  </si>
+  <si>
+    <t>Angel 2 Me (duet with Jeff Bernat)</t>
+  </si>
+  <si>
+    <t>맥케이</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/5LWpOAoZX3c</t>
+  </si>
+  <si>
     <t>분노</t>
   </si>
   <si>
@@ -89,21 +146,48 @@
     <t>내 안의 분노를 제어할 수 없을 때</t>
   </si>
   <si>
+    <t>우주를 건너</t>
+  </si>
+  <si>
     <t>백예린 (Yerin Baek)</t>
   </si>
   <si>
+    <t>https://www.youtube.com/embed/cQuqs2LrXbo</t>
+  </si>
+  <si>
     <t>https://www.music-flo.com/detail/channel/nydey</t>
   </si>
   <si>
     <t>화를 다스리는 마인드 컨트롤 뮤직</t>
   </si>
   <si>
+    <t>Angel (Feat.태연)</t>
+  </si>
+  <si>
     <t>https://www.music-flo.com/detail/channel/enhoo</t>
   </si>
   <si>
     <t>상사한테 혼나고 듣고 싶은 힙합</t>
   </si>
   <si>
+    <t>Fallin' (feat. 일리닛)</t>
+  </si>
+  <si>
+    <t>폴킴</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/A1oQ6htI1cU</t>
+  </si>
+  <si>
+    <t>그놈의 별 (With 조정치)</t>
+  </si>
+  <si>
+    <t>수란 (SURAN)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/BYtt59bmHg8</t>
+  </si>
+  <si>
     <t>슬픔</t>
   </si>
   <si>
@@ -113,12 +197,24 @@
     <t>울고 싶을 때 듣는 발라드 명곡</t>
   </si>
   <si>
+    <t>정바스</t>
+  </si>
+  <si>
     <t>https://www.music-flo.com/detail/channel/nlhal</t>
   </si>
   <si>
     <t>힘들 때 위로가 되어주는 노래</t>
   </si>
   <si>
+    <t>잊을만하면</t>
+  </si>
+  <si>
+    <t>Crush</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/13xy-si_o6c</t>
+  </si>
+  <si>
     <t>https://www.music-flo.com/detail/channel/nlndh</t>
   </si>
   <si>
@@ -134,6 +230,12 @@
     <t>https://www.youtube.com/embed/XUR8QByF2As</t>
   </si>
   <si>
+    <t>어떻게 지내</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/FNnYIIdTBhQ</t>
+  </si>
+  <si>
     <t>기쁨</t>
   </si>
   <si>
@@ -143,18 +245,45 @@
     <t>흥얼거리며 일하고 싶을 때</t>
   </si>
   <si>
+    <t>Walking In The Moonlight (feat. 다원, Lazier)</t>
+  </si>
+  <si>
+    <t>서교동의 밤</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/8uuWkeZ3mAI</t>
+  </si>
+  <si>
     <t>https://www.music-flo.com/detail/channel/nzhiz</t>
   </si>
   <si>
     <t>아침에 출근하며 듣는 상쾌한 케이팝</t>
   </si>
   <si>
+    <t>눈 (Feat. 이문세)</t>
+  </si>
+  <si>
+    <t>Zion.T</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/fiGSDywrX1Y</t>
+  </si>
+  <si>
     <t>https://www.music-flo.com/detail/channel/inoii</t>
   </si>
   <si>
     <t>행복한 상상은 이 노래로 시작해</t>
   </si>
   <si>
+    <t>마법 (Feat. Rani)</t>
+  </si>
+  <si>
+    <t>김호연</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/KLp4Y8N5TNA</t>
+  </si>
+  <si>
     <t>차분</t>
   </si>
   <si>
@@ -164,12 +293,150 @@
     <t>차분한 휴식이 필요할 때 듣는 명상 클래식</t>
   </si>
   <si>
+    <t>Talking To The Moon (Acoustic Piano ver.)</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/xGJjht8Xdoc</t>
+  </si>
+  <si>
+    <t>Make You Feel My Love</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/1j7ecLPAH5I</t>
+  </si>
+  <si>
     <t>불안</t>
   </si>
   <si>
     <t>차분하게 릴랙스, 나를 진정 시켜줄 보이스</t>
   </si>
   <si>
+    <t>Your Song</t>
+  </si>
+  <si>
+    <t>Lady GaGa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/OAuIY_eaL5U</t>
+  </si>
+  <si>
+    <t>그리워요 (Girlfriend)</t>
+  </si>
+  <si>
+    <t>헨리 (HENRY)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/cknk6-RFGSA</t>
+  </si>
+  <si>
+    <t>잊어가지마 (Prod. 로코베리)</t>
+  </si>
+  <si>
+    <t>윤미래</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/K6gEaJTHN4M</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>마마무 (Mamamoo)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/9wDeGgFiYks</t>
+  </si>
+  <si>
+    <t>너의 흔적에 (You're Not)</t>
+  </si>
+  <si>
+    <t>베이빌론 (Babylon)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/yCHCkZs-shE</t>
+  </si>
+  <si>
+    <t>지겨워</t>
+  </si>
+  <si>
+    <t>어반자카파</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/cssrX7UtuII</t>
+  </si>
+  <si>
+    <t>Rain &amp; Cry</t>
+  </si>
+  <si>
+    <t>15&amp;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/WvWrcAGgzBc</t>
+  </si>
+  <si>
+    <t>이별시작</t>
+  </si>
+  <si>
+    <t>나얼</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/iHHwXDDZV1g</t>
+  </si>
+  <si>
+    <t>장마</t>
+  </si>
+  <si>
+    <t>정인</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/_7E9cw1OiNw</t>
+  </si>
+  <si>
+    <t>내가 더 나빠</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ejJn0llPeu4</t>
+  </si>
+  <si>
+    <t>헤어지는 중</t>
+  </si>
+  <si>
+    <t>펀치 (Punch)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/SEak8-7fSwM</t>
+  </si>
+  <si>
+    <t>SOFA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/DbryieXEKIY</t>
+  </si>
+  <si>
+    <t>polaroid</t>
+  </si>
+  <si>
+    <t>결</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/KFDjtkRCD20</t>
+  </si>
+  <si>
+    <t>후회해 (Duet. 헤이즈)</t>
+  </si>
+  <si>
+    <t>박진영</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/TXVw9uoDqGU</t>
+  </si>
+  <si>
     <t>Into the Unknown (Panic! At The Disco Version)</t>
   </si>
   <si>
@@ -227,6 +494,18 @@
     <t>https://www.youtube.com/embed/qGjAWJ2zWWI</t>
   </si>
   <si>
+    <t>선물같은 포근함</t>
+  </si>
+  <si>
+    <t>From Paris (프롬패리스)</t>
+  </si>
+  <si>
+    <t>Peaceful Tides</t>
+  </si>
+  <si>
+    <t>M Relaxing</t>
+  </si>
+  <si>
     <t>Went Missing</t>
   </si>
   <si>
@@ -323,6 +602,42 @@
     <t>https://www.youtube.com/embed/f-l5Rxw6YMY</t>
   </si>
   <si>
+    <t>어디에도</t>
+  </si>
+  <si>
+    <t>엠씨더맥스(M.C the MAX)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/lbLeVCAqd7Y</t>
+  </si>
+  <si>
+    <t>너를 너를 너를</t>
+  </si>
+  <si>
+    <t>플라이 투더 스카이</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/P3pUjPdoCCI</t>
+  </si>
+  <si>
+    <t>오늘 헤어 졌어요</t>
+  </si>
+  <si>
+    <t>윤하</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/gcgNaERtD90</t>
+  </si>
+  <si>
+    <t>추억은 사랑을 닮아</t>
+  </si>
+  <si>
+    <t>박효신</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/IokjBJ7bntU</t>
+  </si>
+  <si>
     <t>이별택시</t>
   </si>
   <si>
@@ -332,39 +647,270 @@
     <t>https://www.youtube.com/embed/wxxb311BWRM</t>
   </si>
   <si>
+    <t>첫눈처럼 너에게 가겠다</t>
+  </si>
+  <si>
+    <t>에일리(Ailee)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/gWZos5_TgVI</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/embed/</t>
   </si>
   <si>
+    <t>그립고 그립고 그립다</t>
+  </si>
+  <si>
+    <t>케이윌</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/mI__QoZnYPo</t>
+  </si>
+  <si>
+    <t>거짓말 거짓말 거짓말</t>
+  </si>
+  <si>
+    <t>이적</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/2TK0eL50EkA</t>
+  </si>
+  <si>
+    <t>이 바보야</t>
+  </si>
+  <si>
+    <t>정승환</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/4TUvt0aegaA</t>
+  </si>
+  <si>
+    <t>사랑안해</t>
+  </si>
+  <si>
+    <t>백지영</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/866QMSFzzmo</t>
+  </si>
+  <si>
+    <t>오늘 뭐 했는지 말해봐</t>
+  </si>
+  <si>
+    <t>권진아</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/1eKVzAnBWF8</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=NOvgWxJmAzk</t>
   </si>
   <si>
+    <t>끝사랑</t>
+  </si>
+  <si>
+    <t>김범수</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/N6ndPiblDPg</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=DkLRNcMUTgc</t>
   </si>
   <si>
+    <t>너는 어땠을까</t>
+  </si>
+  <si>
+    <t>노을</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Nso7yIr8QVM</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=Nso7yIr8QVM</t>
   </si>
   <si>
+    <t>마음아 미안해</t>
+  </si>
+  <si>
+    <t>백아연</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/4VaJ_UNMCQk</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=4VaJ_UNMCQk</t>
   </si>
   <si>
+    <t>내일을 묻는다</t>
+  </si>
+  <si>
+    <t>제이레빗 (J Rabbit)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/xR2BrtoBfjk</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=xR2BrtoBfjk</t>
   </si>
   <si>
+    <t>엄마</t>
+  </si>
+  <si>
+    <t>라디 (Ra. D)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/xRHPRcivWrg</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=xRHPRcivWrg</t>
   </si>
   <si>
+    <t>한숨</t>
+  </si>
+  <si>
+    <t>이하이</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/5iSlfF8TQ9k</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=5iSlfF8TQ9k</t>
   </si>
   <si>
+    <t>꽃길 (Prod. By Zico)</t>
+  </si>
+  <si>
+    <t>김세정</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/OnnzqzlcCaY</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=vUr84Cyfe7Q</t>
   </si>
   <si>
+    <t>무릎</t>
+  </si>
+  <si>
+    <t>아이유 (IU)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Rh5ok0ljrzA</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=SfeaTW4bcAw</t>
   </si>
   <si>
+    <t>ICY</t>
+  </si>
+  <si>
+    <t>ITZY (있지)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/WAHuBH8WFVY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WAHuBH8WFVY</t>
+  </si>
+  <si>
+    <t>BUNGEE (Fall in Love)</t>
+  </si>
+  <si>
+    <t>오마이걸 (OH MY GIRL)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/QTD_yleCK9Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=60K1Zf1IGcM</t>
+  </si>
+  <si>
+    <t>Snapping</t>
+  </si>
+  <si>
+    <t>청하</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/deV_DmHKwjc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QM8HngracYY</t>
+  </si>
+  <si>
+    <t>FANCY</t>
+  </si>
+  <si>
     <t>TWICE (트와이스)</t>
   </si>
   <si>
+    <t>https://www.youtube.com/embed/kOHB85vDuow</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mIXR-7u2Kas</t>
+  </si>
+  <si>
+    <t>날라리 (LALALAY)</t>
+  </si>
+  <si>
+    <t>선미</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/LrggmyDhWBo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XeA8L7dOmpk</t>
+  </si>
+  <si>
+    <t>SHINING★STAR</t>
+  </si>
+  <si>
+    <t>러블리즈</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/01iEEK6j30E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=01iEEK6j30E</t>
+  </si>
+  <si>
+    <t>열대야 (Fever)</t>
+  </si>
+  <si>
+    <t>여자친구 (GFRIEND)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Zll7O1v63aY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7gcc__ASPMg</t>
+  </si>
+  <si>
+    <t>드라마틱 (Dramatic)</t>
+  </si>
+  <si>
+    <t>BVNDIT (밴디트)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Ao9ET61y4Ow</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ncZJhXLN6cc</t>
+  </si>
+  <si>
+    <t>비올레타</t>
+  </si>
+  <si>
+    <t>IZ*ONE (아이즈원)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/6eEZ7DJMzuk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6di5tkf5oYw</t>
+  </si>
+  <si>
     <t>Kill This Love</t>
   </si>
   <si>
@@ -374,80 +920,448 @@
     <t>https://www.youtube.com/embed/2S24-y0Ij3Y</t>
   </si>
   <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>하성운</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Wiq0J7_jHI8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-uawdL4Z8-w</t>
+  </si>
+  <si>
+    <t>달라달라</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/pNfTK39k55U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uzt5RZKi3iI</t>
+  </si>
+  <si>
     <t>KNOCK KNOCK</t>
   </si>
   <si>
     <t>https://www.youtube.com/embed/8A2t_tAjMz8</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=zrLRWyQM0eg</t>
+  </si>
+  <si>
+    <t>Ah-Choo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/DEd8ED2FdAg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v7qisJ_KuYI</t>
+  </si>
+  <si>
+    <t>GOT7 (갓세븐)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/O57jr1oZDIw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZBzdALzo2Yk</t>
+  </si>
+  <si>
+    <t>행복한 날들이었다</t>
+  </si>
+  <si>
+    <t>DAY6 (데이식스)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/1nk5O__ALI8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gMR2LnlLFLw</t>
+  </si>
+  <si>
+    <t>뿜뿜</t>
+  </si>
+  <si>
+    <t>모모랜드 (MOMOLAND)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/JQGRg8XBnB4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cMl9_IixsGk</t>
+  </si>
+  <si>
+    <t>니가 불어와(Crazy sexy cool)</t>
+  </si>
+  <si>
+    <t>아스트로 (ASTRO)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/zp-Bl1xXGoU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QEFt08q_F7Q</t>
+  </si>
+  <si>
+    <t>오랜 날 오랜 밤</t>
+  </si>
+  <si>
+    <t>AKMU (악뮤)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/wEQpfil0IYA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wEQpfil0IYA</t>
+  </si>
+  <si>
+    <t>행복의 주문</t>
+  </si>
+  <si>
+    <t>커피소년</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/YpdJpYIl168</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eTeRPMU5l2Y</t>
+  </si>
+  <si>
+    <t>BE THERE</t>
+  </si>
+  <si>
+    <t>CHEEZE (치즈)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GmPpzVZ7Wp0</t>
+  </si>
+  <si>
     <t>그건 아마 우리의 잘못은 아닐거야</t>
   </si>
   <si>
     <t>https://www.youtube.com/embed/yWP--1gsr20</t>
   </si>
   <si>
+    <t>주문을 걸어</t>
+  </si>
+  <si>
+    <t>박혜경</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MaVmYzOvtDg</t>
+  </si>
+  <si>
+    <t>classic mix</t>
+  </si>
+  <si>
+    <t>Ludovico Einaudi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/_DClKudgeD4</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=04rnIete90I</t>
   </si>
   <si>
+    <t>classic mix1</t>
+  </si>
+  <si>
+    <t>Ola Gjeilo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/jYH-Q1E7Y3E</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=RKiS7KNf8dg</t>
   </si>
   <si>
+    <t>classic mix2</t>
+  </si>
+  <si>
+    <t>Joep Beving</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ORXzGJxAsVs</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=KkJBlOpeV88</t>
   </si>
   <si>
+    <t>classic mix3</t>
+  </si>
+  <si>
+    <t>Sebastian Plano</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Q-iEfzaikBI</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=i3i9PwXL39U</t>
   </si>
   <si>
+    <t>classic mix4</t>
+  </si>
+  <si>
+    <t>Lambert</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/PoTY75REP-I</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=IKiKZwE1l8c</t>
   </si>
   <si>
+    <t>classic mix5</t>
+  </si>
+  <si>
+    <t>Michael Forster</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/7Sw3WGogkNU</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=vs-sPCCWCoU</t>
   </si>
   <si>
+    <t>classic mix6</t>
+  </si>
+  <si>
+    <t>Rob Simonsen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/0zab30B7eEs</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=NUIxtVeL7fA</t>
   </si>
   <si>
+    <t>월광소나타</t>
+  </si>
+  <si>
+    <t>베토벤</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/lQ8IcWDOpKo</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=HaMq2nn5ac0</t>
   </si>
   <si>
+    <t>Close To You</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=EXEAeae1MaU</t>
   </si>
   <si>
+    <t>lovely</t>
+  </si>
+  <si>
+    <t>Billie Eilish &amp; Khalid</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/OBJ8JALSEXk</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=yBbNGXnFcrc</t>
   </si>
   <si>
+    <t>Ordinary People</t>
+  </si>
+  <si>
+    <t>John Legend</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/hIqwBsn-KVE</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=PIh07c_P4hc</t>
   </si>
   <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>Mariah Carey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/NpaNUIeTzQo</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=jnIa8USlLsc</t>
   </si>
   <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Ruben Studdard</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/v02WlmBKUPA</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=LwIKNloKhGk</t>
   </si>
   <si>
+    <t>Speechless</t>
+  </si>
+  <si>
+    <t>Naomi Scott</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/E5m7E9W0u3c</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=ighFo0i0nrA</t>
   </si>
   <si>
+    <t>No Answer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/DFsTvDaz5bA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기쁨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불안</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기쁨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬픔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/7e0bLknKon8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>공포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.youtube.com/embed/a_HrXfWsThU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/8UUDyQyuvwI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Pqmcumsnqm0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.youtube.com/embed/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Red Sun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기쁨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.youtube.com/embed/MOG7BexjPjM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.youtube.com/embed/cJq41cQC9U8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/gMKsrqm_s6U</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>당황</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Silent Hill 2 OST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Akira Yamaoka </t>
+  </si>
+  <si>
+    <t>Erik Margolin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin Macleod</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/em0PNkNMEVg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Falling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그루잠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기쁨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기쁨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Come Play with me</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/HMIs9KDPQQY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaia in Fog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/4rUfSJuPzAs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7th Element</t>
+  </si>
+  <si>
+    <t>Vitas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>FFNT4vPnHNU</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Decication</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>민초의난</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -460,6 +1374,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.youtube.com/embed/H0psxkfFgrI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/0HmeJ_V30XM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.youtube.com/embed/792jeZ08h94</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -468,14 +1390,89 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>하드캐리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/EbKHsEUAgHA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>불안</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.youtube.com/embed/MaVmYzOvtDg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/VvyD2VKfR0Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>horrible music BGM mix1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mix1</t>
+  </si>
+  <si>
+    <t>horrible music BGM mix2</t>
+  </si>
+  <si>
+    <t>mix2</t>
+  </si>
+  <si>
+    <t>horrible music BGM mix3</t>
+  </si>
+  <si>
+    <t>mix3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/GVdpZsAal8M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost Processional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dan Bodan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.youtube.com/embed/FFNT4vPnHNU</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.youtube.com/embed/RKBJVdjOHUY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Dusty Attic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/_6NIAu3JW-g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/kRwyimMLJkw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/7iVudI95Ebc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/B5-X_3_Kpww</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/FFNT4vPnHNU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>MC Sniper</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -484,11 +1481,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Vitas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창귀(민속 신앙 범귀신)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안예은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미궁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>황병기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림캐쳐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저주인형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>빅스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저주인형</t>
+    <t>공포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>챈슬러&amp;태연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>붙어있자 (Feat. Jozu)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불안</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기쁨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +1561,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +1590,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="한컴 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="한컴 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -570,7 +1642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -588,6 +1660,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,7 +1887,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -849,444 +1927,444 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>135</v>
+        <v>482</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>135</v>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>148</v>
+        <v>465</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>466</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>133</v>
+        <v>467</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>135</v>
+        <v>406</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>135</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>135</v>
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>148</v>
+        <v>396</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>148</v>
+        <v>468</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>147</v>
+        <v>469</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>133</v>
+        <v>467</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>135</v>
+        <v>405</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>148</v>
+        <v>409</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>147</v>
+        <v>470</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>133</v>
+        <v>467</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>135</v>
+        <v>455</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>148</v>
+        <v>471</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>472</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>473</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>135</v>
+        <v>411</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>148</v>
+        <v>445</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>147</v>
+        <v>446</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>474</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>135</v>
+        <v>458</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>148</v>
+        <v>447</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>147</v>
+        <v>448</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>133</v>
+        <v>475</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>135</v>
+        <v>412</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>148</v>
+        <v>449</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>147</v>
+        <v>450</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>467</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>135</v>
+        <v>413</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>135</v>
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>148</v>
+        <v>415</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>147</v>
+        <v>416</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>133</v>
+        <v>467</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>135</v>
+        <v>451</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>148</v>
+        <v>456</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
+        <v>417</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>135</v>
+        <v>459</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>135</v>
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>148</v>
+        <v>452</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
+        <v>419</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>133</v>
+        <v>477</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>135</v>
+        <v>457</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>148</v>
+        <v>425</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>147</v>
+        <v>419</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>133</v>
+        <v>404</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>135</v>
+        <v>426</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>148</v>
+        <v>427</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>147</v>
+        <v>453</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>133</v>
+        <v>467</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>135</v>
+        <v>428</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1295,40 +2373,40 @@
     </row>
     <row r="22" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>429</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>430</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>460</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1337,16 +2415,16 @@
     </row>
     <row r="24" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1355,19 +2433,19 @@
     </row>
     <row r="25" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>134</v>
+        <v>408</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1375,16 +2453,16 @@
     </row>
     <row r="26" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1393,19 +2471,19 @@
     </row>
     <row r="27" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>144</v>
+        <v>454</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1413,36 +2491,36 @@
     </row>
     <row r="28" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>137</v>
+        <v>431</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1451,16 +2529,16 @@
     </row>
     <row r="30" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1469,16 +2547,16 @@
     </row>
     <row r="31" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1487,16 +2565,16 @@
     </row>
     <row r="32" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1505,16 +2583,16 @@
     </row>
     <row r="33" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1523,16 +2601,16 @@
     </row>
     <row r="34" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1541,16 +2619,16 @@
     </row>
     <row r="35" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1559,16 +2637,16 @@
     </row>
     <row r="36" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1577,16 +2655,16 @@
     </row>
     <row r="37" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>136</v>
+        <v>414</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1595,16 +2673,16 @@
     </row>
     <row r="38" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>145</v>
+        <v>462</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>146</v>
+        <v>463</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1613,16 +2691,16 @@
     </row>
     <row r="39" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>139</v>
+        <v>434</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1631,16 +2709,16 @@
     </row>
     <row r="40" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1649,16 +2727,16 @@
     </row>
     <row r="41" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1667,16 +2745,16 @@
     </row>
     <row r="42" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1685,16 +2763,16 @@
     </row>
     <row r="43" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1703,16 +2781,16 @@
     </row>
     <row r="44" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>112</v>
+        <v>294</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>113</v>
+        <v>295</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>142</v>
+        <v>439</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>114</v>
+        <v>296</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1721,16 +2799,16 @@
     </row>
     <row r="45" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>140</v>
+        <v>435</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1739,16 +2817,16 @@
     </row>
     <row r="46" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1757,16 +2835,16 @@
     </row>
     <row r="47" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1775,16 +2853,16 @@
     </row>
     <row r="48" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1793,16 +2871,16 @@
     </row>
     <row r="49" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1811,16 +2889,16 @@
     </row>
     <row r="50" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1829,16 +2907,16 @@
     </row>
     <row r="51" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1847,16 +2925,16 @@
     </row>
     <row r="52" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1865,16 +2943,16 @@
     </row>
     <row r="53" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>141</v>
+        <v>438</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1883,16 +2961,16 @@
     </row>
     <row r="54" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1901,16 +2979,16 @@
     </row>
     <row r="55" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1919,16 +2997,16 @@
     </row>
     <row r="56" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1937,16 +3015,16 @@
     </row>
     <row r="57" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1955,16 +3033,16 @@
     </row>
     <row r="58" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1973,16 +3051,16 @@
     </row>
     <row r="59" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1991,16 +3069,16 @@
     </row>
     <row r="60" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -2009,16 +3087,16 @@
     </row>
     <row r="61" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -2027,16 +3105,16 @@
     </row>
     <row r="62" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -2045,19 +3123,19 @@
     </row>
     <row r="63" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -2065,16 +3143,16 @@
     </row>
     <row r="64" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -2083,16 +3161,16 @@
     </row>
     <row r="65" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -2101,16 +3179,16 @@
     </row>
     <row r="66" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -2119,16 +3197,16 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -2137,19 +3215,19 @@
     </row>
     <row r="68" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -2157,19 +3235,19 @@
     </row>
     <row r="69" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -2177,19 +3255,19 @@
     </row>
     <row r="70" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -2197,19 +3275,19 @@
     </row>
     <row r="71" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>98</v>
+        <v>234</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -2217,19 +3295,19 @@
     </row>
     <row r="72" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>106</v>
+        <v>241</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -2237,19 +3315,19 @@
     </row>
     <row r="73" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -2257,39 +3335,39 @@
     </row>
     <row r="74" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>98</v>
+      <c r="A75" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>100</v>
+        <v>252</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -2297,19 +3375,19 @@
     </row>
     <row r="76" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -2317,16 +3395,16 @@
     </row>
     <row r="77" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>25</v>
+        <v>401</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -2335,16 +3413,16 @@
     </row>
     <row r="78" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>25</v>
+        <v>401</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -2353,16 +3431,16 @@
     </row>
     <row r="79" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>25</v>
+        <v>401</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -2371,714 +3449,756 @@
     </row>
     <row r="80" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>98</v>
+        <v>432</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>99</v>
+        <v>464</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>100</v>
+        <v>401</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>111</v>
+        <v>421</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>116</v>
+        <v>423</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E82" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>115</v>
+        <v>262</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>111</v>
+        <v>263</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E83" s="4"/>
+        <v>264</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>111</v>
+        <v>267</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E84" s="4"/>
+        <v>268</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="F84" s="3"/>
       <c r="G84" s="4"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>111</v>
+        <v>271</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E85" s="4"/>
+        <v>272</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="F85" s="3"/>
       <c r="G85" s="4"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>115</v>
+        <v>274</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E86" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="F86" s="3"/>
       <c r="G86" s="4"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>115</v>
+        <v>278</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>111</v>
+        <v>279</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E87" s="4"/>
+        <v>280</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>115</v>
+        <v>282</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E88" s="4"/>
+        <v>284</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E89" s="4"/>
+        <v>288</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>115</v>
+        <v>290</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E90" s="4"/>
+        <v>292</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>115</v>
+        <v>297</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>111</v>
+        <v>298</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E91" s="4"/>
+        <v>299</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>115</v>
+        <v>301</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E92" s="4"/>
+        <v>302</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>115</v>
+        <v>304</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>111</v>
+        <v>271</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E93" s="4"/>
+        <v>305</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="F93" s="3"/>
       <c r="G93" s="4"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>115</v>
+        <v>307</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>111</v>
+        <v>279</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E94" s="4"/>
+        <v>308</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>115</v>
+        <v>440</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>111</v>
+        <v>310</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E95" s="4"/>
+        <v>311</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>115</v>
+        <v>313</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>111</v>
+        <v>314</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E96" s="4"/>
+        <v>315</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>316</v>
+      </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>115</v>
+        <v>317</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>111</v>
+        <v>318</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E97" s="4"/>
+        <v>319</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>115</v>
+        <v>321</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>111</v>
+        <v>322</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E98" s="4"/>
+        <v>323</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>115</v>
+        <v>325</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>111</v>
+        <v>326</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E99" s="4"/>
+        <v>327</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>115</v>
+        <v>329</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>111</v>
+        <v>330</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E100" s="4"/>
+        <v>331</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>115</v>
+        <v>333</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>111</v>
+        <v>334</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E101" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>335</v>
+      </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>115</v>
+        <v>338</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>111</v>
+        <v>339</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E102" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C103" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>111</v>
+        <v>478</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>116</v>
+        <v>410</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>397</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>35</v>
+        <v>424</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>35</v>
+        <v>398</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="4"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>115</v>
+        <v>341</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>111</v>
+        <v>342</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>116</v>
+        <v>343</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>119</v>
+        <v>344</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>115</v>
+        <v>345</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>111</v>
+        <v>346</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>116</v>
+        <v>347</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>120</v>
+        <v>348</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>115</v>
+        <v>349</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>111</v>
+        <v>350</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>116</v>
+        <v>351</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>121</v>
+        <v>352</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>115</v>
+        <v>353</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>111</v>
+        <v>354</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>116</v>
+        <v>355</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>122</v>
+        <v>356</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>115</v>
+        <v>357</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>111</v>
+        <v>358</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>116</v>
+        <v>359</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>123</v>
+        <v>360</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>115</v>
+        <v>361</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>111</v>
+        <v>362</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>116</v>
+        <v>363</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>124</v>
+        <v>364</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>115</v>
+        <v>365</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>111</v>
+        <v>366</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>116</v>
+        <v>367</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>125</v>
+        <v>368</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="4"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>115</v>
+        <v>479</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>116</v>
+        <v>402</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>403</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>35</v>
+        <v>418</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>116</v>
+        <v>418</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>436</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>116</v>
+        <v>418</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
@@ -3087,19 +4207,19 @@
     </row>
     <row r="119" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>117</v>
+        <v>369</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>143</v>
+        <v>480</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>118</v>
+        <v>371</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>126</v>
+        <v>372</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -3107,19 +4227,19 @@
     </row>
     <row r="120" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>117</v>
+        <v>373</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>20</v>
+        <v>374</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>118</v>
+        <v>94</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>127</v>
+        <v>375</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -3127,19 +4247,19 @@
     </row>
     <row r="121" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>117</v>
+        <v>376</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>20</v>
+        <v>377</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>118</v>
+        <v>378</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>128</v>
+        <v>379</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -3147,19 +4267,19 @@
     </row>
     <row r="122" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>117</v>
+        <v>380</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>20</v>
+        <v>381</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>118</v>
+        <v>382</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>129</v>
+        <v>383</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -3167,19 +4287,19 @@
     </row>
     <row r="123" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>117</v>
+        <v>384</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>118</v>
+        <v>386</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>130</v>
+        <v>387</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -3187,19 +4307,19 @@
     </row>
     <row r="124" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>117</v>
+        <v>388</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>118</v>
+        <v>390</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>131</v>
+        <v>391</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3207,19 +4327,19 @@
     </row>
     <row r="125" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>117</v>
+        <v>392</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>118</v>
+        <v>394</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>132</v>
+        <v>395</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -3227,16 +4347,16 @@
     </row>
     <row r="126" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>143</v>
+        <v>399</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -3245,16 +4365,16 @@
     </row>
     <row r="127" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>117</v>
+        <v>336</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>143</v>
+        <v>442</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>118</v>
+        <v>337</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
@@ -4138,179 +5258,183 @@
   <autoFilter ref="A1:H127">
     <filterColumn colId="2">
       <filters>
-        <filter val="기쁨"/>
-        <filter val="차분"/>
+        <filter val="공포"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
-    <hyperlink ref="G8" r:id="rId5"/>
-    <hyperlink ref="G9" r:id="rId6"/>
-    <hyperlink ref="G10" r:id="rId7"/>
-    <hyperlink ref="G12" r:id="rId8"/>
-    <hyperlink ref="G13" r:id="rId9"/>
-    <hyperlink ref="G14" r:id="rId10"/>
-    <hyperlink ref="D37" r:id="rId11"/>
-    <hyperlink ref="G16" r:id="rId12"/>
-    <hyperlink ref="G17" r:id="rId13"/>
-    <hyperlink ref="G18" r:id="rId14"/>
-    <hyperlink ref="G20" r:id="rId15"/>
-    <hyperlink ref="G22" r:id="rId16"/>
-    <hyperlink ref="D38" r:id="rId17"/>
-    <hyperlink ref="D39" r:id="rId18"/>
-    <hyperlink ref="D40" r:id="rId19"/>
-    <hyperlink ref="D41" r:id="rId20"/>
-    <hyperlink ref="D42" r:id="rId21"/>
-    <hyperlink ref="D43" r:id="rId22"/>
-    <hyperlink ref="D46" r:id="rId23"/>
-    <hyperlink ref="D47" r:id="rId24"/>
-    <hyperlink ref="D48" r:id="rId25"/>
-    <hyperlink ref="D49" r:id="rId26"/>
-    <hyperlink ref="D50" r:id="rId27"/>
-    <hyperlink ref="D51" r:id="rId28"/>
-    <hyperlink ref="D52" r:id="rId29"/>
-    <hyperlink ref="D53" r:id="rId30"/>
-    <hyperlink ref="D54" r:id="rId31"/>
-    <hyperlink ref="D55" r:id="rId32"/>
-    <hyperlink ref="D57" r:id="rId33"/>
-    <hyperlink ref="E63" r:id="rId34"/>
-    <hyperlink ref="E68" r:id="rId35"/>
-    <hyperlink ref="E69" r:id="rId36"/>
-    <hyperlink ref="E72" r:id="rId37"/>
-    <hyperlink ref="E73" r:id="rId38"/>
-    <hyperlink ref="E74" r:id="rId39"/>
-    <hyperlink ref="E75" r:id="rId40"/>
-    <hyperlink ref="E76" r:id="rId41"/>
-    <hyperlink ref="D44" r:id="rId42"/>
-    <hyperlink ref="D81" r:id="rId43"/>
-    <hyperlink ref="D119" r:id="rId44"/>
-    <hyperlink ref="E108" r:id="rId45"/>
-    <hyperlink ref="E109" r:id="rId46"/>
-    <hyperlink ref="E110" r:id="rId47"/>
-    <hyperlink ref="E111" r:id="rId48"/>
-    <hyperlink ref="E112" r:id="rId49"/>
-    <hyperlink ref="E113" r:id="rId50"/>
-    <hyperlink ref="E114" r:id="rId51"/>
-    <hyperlink ref="E119" r:id="rId52"/>
-    <hyperlink ref="E120" r:id="rId53"/>
-    <hyperlink ref="E121" r:id="rId54"/>
-    <hyperlink ref="E122" r:id="rId55"/>
-    <hyperlink ref="E123" r:id="rId56"/>
-    <hyperlink ref="E124" r:id="rId57"/>
-    <hyperlink ref="E125" r:id="rId58"/>
-    <hyperlink ref="D45" r:id="rId59"/>
-    <hyperlink ref="D2" r:id="rId60"/>
-    <hyperlink ref="D3" r:id="rId61"/>
-    <hyperlink ref="D4" r:id="rId62"/>
-    <hyperlink ref="D5" r:id="rId63"/>
-    <hyperlink ref="D6" r:id="rId64"/>
-    <hyperlink ref="D7" r:id="rId65"/>
-    <hyperlink ref="D8" r:id="rId66"/>
-    <hyperlink ref="D9" r:id="rId67"/>
-    <hyperlink ref="D10" r:id="rId68"/>
-    <hyperlink ref="D11" r:id="rId69"/>
-    <hyperlink ref="D12" r:id="rId70"/>
-    <hyperlink ref="D13" r:id="rId71"/>
-    <hyperlink ref="D14" r:id="rId72"/>
-    <hyperlink ref="D15" r:id="rId73"/>
-    <hyperlink ref="D16" r:id="rId74"/>
-    <hyperlink ref="D17" r:id="rId75"/>
-    <hyperlink ref="D18" r:id="rId76"/>
-    <hyperlink ref="D19" r:id="rId77"/>
-    <hyperlink ref="D20" r:id="rId78"/>
-    <hyperlink ref="D82" r:id="rId79"/>
-    <hyperlink ref="D83" r:id="rId80"/>
-    <hyperlink ref="D84" r:id="rId81"/>
-    <hyperlink ref="D85" r:id="rId82"/>
-    <hyperlink ref="D86" r:id="rId83"/>
-    <hyperlink ref="D87" r:id="rId84"/>
-    <hyperlink ref="D88" r:id="rId85"/>
-    <hyperlink ref="D89" r:id="rId86"/>
-    <hyperlink ref="D90" r:id="rId87"/>
-    <hyperlink ref="D91" r:id="rId88"/>
-    <hyperlink ref="D92" r:id="rId89"/>
-    <hyperlink ref="D93" r:id="rId90"/>
-    <hyperlink ref="D94" r:id="rId91"/>
-    <hyperlink ref="D95" r:id="rId92"/>
-    <hyperlink ref="D96" r:id="rId93"/>
-    <hyperlink ref="D97" r:id="rId94"/>
-    <hyperlink ref="D98" r:id="rId95"/>
-    <hyperlink ref="D99" r:id="rId96"/>
-    <hyperlink ref="D100" r:id="rId97"/>
-    <hyperlink ref="D101" r:id="rId98"/>
-    <hyperlink ref="D102" r:id="rId99"/>
-    <hyperlink ref="D103" r:id="rId100"/>
-    <hyperlink ref="D104" r:id="rId101"/>
-    <hyperlink ref="D105" r:id="rId102"/>
-    <hyperlink ref="D106" r:id="rId103"/>
-    <hyperlink ref="D107" r:id="rId104"/>
-    <hyperlink ref="E27" r:id="rId105"/>
-    <hyperlink ref="E25" r:id="rId106"/>
-    <hyperlink ref="D21" r:id="rId107"/>
-    <hyperlink ref="D22" r:id="rId108"/>
-    <hyperlink ref="D23" r:id="rId109"/>
-    <hyperlink ref="D24" r:id="rId110"/>
-    <hyperlink ref="D25" r:id="rId111"/>
-    <hyperlink ref="D26" r:id="rId112"/>
-    <hyperlink ref="D27" r:id="rId113"/>
-    <hyperlink ref="D28" r:id="rId114"/>
-    <hyperlink ref="D29" r:id="rId115"/>
-    <hyperlink ref="D30" r:id="rId116"/>
-    <hyperlink ref="D31" r:id="rId117"/>
-    <hyperlink ref="D32" r:id="rId118"/>
-    <hyperlink ref="D33" r:id="rId119"/>
-    <hyperlink ref="D34" r:id="rId120"/>
-    <hyperlink ref="D35" r:id="rId121"/>
-    <hyperlink ref="D36" r:id="rId122"/>
-    <hyperlink ref="D120" r:id="rId123"/>
-    <hyperlink ref="D121" r:id="rId124"/>
-    <hyperlink ref="D122" r:id="rId125"/>
-    <hyperlink ref="D123" r:id="rId126"/>
-    <hyperlink ref="D124" r:id="rId127"/>
-    <hyperlink ref="D125" r:id="rId128"/>
-    <hyperlink ref="D126" r:id="rId129"/>
-    <hyperlink ref="D127" r:id="rId130"/>
-    <hyperlink ref="D58" r:id="rId131"/>
-    <hyperlink ref="D59" r:id="rId132"/>
-    <hyperlink ref="D60" r:id="rId133"/>
-    <hyperlink ref="D61" r:id="rId134"/>
-    <hyperlink ref="D62" r:id="rId135"/>
-    <hyperlink ref="D63" r:id="rId136"/>
-    <hyperlink ref="D64" r:id="rId137"/>
-    <hyperlink ref="D65" r:id="rId138"/>
-    <hyperlink ref="D66" r:id="rId139"/>
-    <hyperlink ref="D67" r:id="rId140"/>
-    <hyperlink ref="D68" r:id="rId141"/>
-    <hyperlink ref="D69" r:id="rId142"/>
-    <hyperlink ref="D70" r:id="rId143"/>
-    <hyperlink ref="D71" r:id="rId144"/>
-    <hyperlink ref="D72" r:id="rId145"/>
-    <hyperlink ref="D73" r:id="rId146"/>
-    <hyperlink ref="D74" r:id="rId147"/>
-    <hyperlink ref="D75" r:id="rId148"/>
-    <hyperlink ref="D76" r:id="rId149"/>
-    <hyperlink ref="D77" r:id="rId150"/>
-    <hyperlink ref="D78" r:id="rId151"/>
-    <hyperlink ref="D79" r:id="rId152"/>
-    <hyperlink ref="D80" r:id="rId153"/>
-    <hyperlink ref="D108" r:id="rId154"/>
-    <hyperlink ref="D109" r:id="rId155"/>
-    <hyperlink ref="D110" r:id="rId156"/>
-    <hyperlink ref="D111" r:id="rId157"/>
-    <hyperlink ref="D112" r:id="rId158"/>
-    <hyperlink ref="D113" r:id="rId159"/>
-    <hyperlink ref="D114" r:id="rId160"/>
-    <hyperlink ref="D115" r:id="rId161"/>
-    <hyperlink ref="D116" r:id="rId162"/>
-    <hyperlink ref="D117" r:id="rId163"/>
-    <hyperlink ref="D118" r:id="rId164"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="D77" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="D6" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="D7" r:id="rId10"/>
+    <hyperlink ref="D103" r:id="rId11"/>
+    <hyperlink ref="G8" r:id="rId12"/>
+    <hyperlink ref="D126" r:id="rId13"/>
+    <hyperlink ref="G9" r:id="rId14"/>
+    <hyperlink ref="G10" r:id="rId15"/>
+    <hyperlink ref="D105" r:id="rId16"/>
+    <hyperlink ref="D78" r:id="rId17"/>
+    <hyperlink ref="G12" r:id="rId18"/>
+    <hyperlink ref="D115" r:id="rId19"/>
+    <hyperlink ref="G13" r:id="rId20"/>
+    <hyperlink ref="D14" r:id="rId21"/>
+    <hyperlink ref="G14" r:id="rId22"/>
+    <hyperlink ref="D37" r:id="rId23"/>
+    <hyperlink ref="D79" r:id="rId24"/>
+    <hyperlink ref="G16" r:id="rId25"/>
+    <hyperlink ref="D17" r:id="rId26"/>
+    <hyperlink ref="G17" r:id="rId27"/>
+    <hyperlink ref="D116" r:id="rId28"/>
+    <hyperlink ref="G18" r:id="rId29"/>
+    <hyperlink ref="D106" r:id="rId30"/>
+    <hyperlink ref="D81" r:id="rId31"/>
+    <hyperlink ref="G20" r:id="rId32"/>
+    <hyperlink ref="D21" r:id="rId33"/>
+    <hyperlink ref="D22" r:id="rId34"/>
+    <hyperlink ref="G22" r:id="rId35"/>
+    <hyperlink ref="D107" r:id="rId36"/>
+    <hyperlink ref="D24" r:id="rId37"/>
+    <hyperlink ref="D25" r:id="rId38"/>
+    <hyperlink ref="D27" r:id="rId39"/>
+    <hyperlink ref="D28" r:id="rId40"/>
+    <hyperlink ref="D29" r:id="rId41"/>
+    <hyperlink ref="D30" r:id="rId42"/>
+    <hyperlink ref="D31" r:id="rId43"/>
+    <hyperlink ref="D32" r:id="rId44"/>
+    <hyperlink ref="D33" r:id="rId45"/>
+    <hyperlink ref="D34" r:id="rId46"/>
+    <hyperlink ref="D35" r:id="rId47"/>
+    <hyperlink ref="D36" r:id="rId48"/>
+    <hyperlink ref="D38" r:id="rId49"/>
+    <hyperlink ref="D39" r:id="rId50"/>
+    <hyperlink ref="D40" r:id="rId51"/>
+    <hyperlink ref="D41" r:id="rId52"/>
+    <hyperlink ref="D42" r:id="rId53"/>
+    <hyperlink ref="D43" r:id="rId54"/>
+    <hyperlink ref="D46" r:id="rId55"/>
+    <hyperlink ref="D117" r:id="rId56"/>
+    <hyperlink ref="D118" r:id="rId57"/>
+    <hyperlink ref="D47" r:id="rId58"/>
+    <hyperlink ref="D48" r:id="rId59"/>
+    <hyperlink ref="D49" r:id="rId60"/>
+    <hyperlink ref="D50" r:id="rId61"/>
+    <hyperlink ref="D51" r:id="rId62"/>
+    <hyperlink ref="D52" r:id="rId63"/>
+    <hyperlink ref="D53" r:id="rId64"/>
+    <hyperlink ref="D54" r:id="rId65"/>
+    <hyperlink ref="D55" r:id="rId66"/>
+    <hyperlink ref="D57" r:id="rId67"/>
+    <hyperlink ref="D58" r:id="rId68"/>
+    <hyperlink ref="D59" r:id="rId69"/>
+    <hyperlink ref="D60" r:id="rId70"/>
+    <hyperlink ref="D61" r:id="rId71"/>
+    <hyperlink ref="D62" r:id="rId72"/>
+    <hyperlink ref="E63" r:id="rId73"/>
+    <hyperlink ref="D65" r:id="rId74"/>
+    <hyperlink ref="D67" r:id="rId75"/>
+    <hyperlink ref="D68" r:id="rId76"/>
+    <hyperlink ref="E68" r:id="rId77"/>
+    <hyperlink ref="D69" r:id="rId78"/>
+    <hyperlink ref="E69" r:id="rId79"/>
+    <hyperlink ref="D70" r:id="rId80"/>
+    <hyperlink ref="D71" r:id="rId81"/>
+    <hyperlink ref="D72" r:id="rId82"/>
+    <hyperlink ref="E72" r:id="rId83"/>
+    <hyperlink ref="D73" r:id="rId84"/>
+    <hyperlink ref="E73" r:id="rId85"/>
+    <hyperlink ref="D74" r:id="rId86"/>
+    <hyperlink ref="E74" r:id="rId87"/>
+    <hyperlink ref="D75" r:id="rId88"/>
+    <hyperlink ref="E75" r:id="rId89"/>
+    <hyperlink ref="D76" r:id="rId90"/>
+    <hyperlink ref="E76" r:id="rId91"/>
+    <hyperlink ref="D82" r:id="rId92"/>
+    <hyperlink ref="E82" r:id="rId93"/>
+    <hyperlink ref="D83" r:id="rId94"/>
+    <hyperlink ref="E83" r:id="rId95"/>
+    <hyperlink ref="D84" r:id="rId96"/>
+    <hyperlink ref="E84" r:id="rId97"/>
+    <hyperlink ref="D85" r:id="rId98"/>
+    <hyperlink ref="E85" r:id="rId99"/>
+    <hyperlink ref="D86" r:id="rId100"/>
+    <hyperlink ref="E86" r:id="rId101"/>
+    <hyperlink ref="D87" r:id="rId102"/>
+    <hyperlink ref="E87" r:id="rId103"/>
+    <hyperlink ref="D88" r:id="rId104"/>
+    <hyperlink ref="E88" r:id="rId105"/>
+    <hyperlink ref="D89" r:id="rId106"/>
+    <hyperlink ref="E89" r:id="rId107"/>
+    <hyperlink ref="D90" r:id="rId108"/>
+    <hyperlink ref="E90" r:id="rId109"/>
+    <hyperlink ref="D44" r:id="rId110"/>
+    <hyperlink ref="D91" r:id="rId111"/>
+    <hyperlink ref="E91" r:id="rId112"/>
+    <hyperlink ref="D92" r:id="rId113"/>
+    <hyperlink ref="E92" r:id="rId114"/>
+    <hyperlink ref="D93" r:id="rId115"/>
+    <hyperlink ref="E93" r:id="rId116"/>
+    <hyperlink ref="D94" r:id="rId117"/>
+    <hyperlink ref="E94" r:id="rId118"/>
+    <hyperlink ref="D95" r:id="rId119"/>
+    <hyperlink ref="E95" r:id="rId120"/>
+    <hyperlink ref="D96" r:id="rId121"/>
+    <hyperlink ref="E96" r:id="rId122"/>
+    <hyperlink ref="D97" r:id="rId123"/>
+    <hyperlink ref="E97" r:id="rId124"/>
+    <hyperlink ref="D98" r:id="rId125"/>
+    <hyperlink ref="E98" r:id="rId126"/>
+    <hyperlink ref="D99" r:id="rId127"/>
+    <hyperlink ref="E99" r:id="rId128"/>
+    <hyperlink ref="D100" r:id="rId129"/>
+    <hyperlink ref="E100" r:id="rId130"/>
+    <hyperlink ref="D101" r:id="rId131"/>
+    <hyperlink ref="E101" r:id="rId132"/>
+    <hyperlink ref="D127" r:id="rId133"/>
+    <hyperlink ref="D102" r:id="rId134"/>
+    <hyperlink ref="E102" r:id="rId135"/>
+    <hyperlink ref="D108" r:id="rId136"/>
+    <hyperlink ref="E108" r:id="rId137"/>
+    <hyperlink ref="E109" r:id="rId138"/>
+    <hyperlink ref="E110" r:id="rId139"/>
+    <hyperlink ref="E111" r:id="rId140"/>
+    <hyperlink ref="E112" r:id="rId141"/>
+    <hyperlink ref="E113" r:id="rId142"/>
+    <hyperlink ref="E114" r:id="rId143"/>
+    <hyperlink ref="E119" r:id="rId144"/>
+    <hyperlink ref="E120" r:id="rId145"/>
+    <hyperlink ref="E121" r:id="rId146"/>
+    <hyperlink ref="E122" r:id="rId147"/>
+    <hyperlink ref="E123" r:id="rId148"/>
+    <hyperlink ref="E124" r:id="rId149"/>
+    <hyperlink ref="E125" r:id="rId150"/>
+    <hyperlink ref="D104" r:id="rId151"/>
+    <hyperlink ref="D11" r:id="rId152"/>
+    <hyperlink ref="D8" r:id="rId153"/>
+    <hyperlink ref="D9" r:id="rId154"/>
+    <hyperlink ref="E25" r:id="rId155"/>
+    <hyperlink ref="D10" r:id="rId156"/>
+    <hyperlink ref="D12" r:id="rId157"/>
+    <hyperlink ref="D13" r:id="rId158"/>
+    <hyperlink ref="D15" r:id="rId159"/>
+    <hyperlink ref="D16" r:id="rId160"/>
+    <hyperlink ref="D18" r:id="rId161"/>
+    <hyperlink ref="D19" r:id="rId162"/>
+    <hyperlink ref="D20" r:id="rId163"/>
+    <hyperlink ref="D23" r:id="rId164"/>
+    <hyperlink ref="E27" r:id="rId165"/>
+    <hyperlink ref="D80" r:id="rId166"/>
+    <hyperlink ref="D26" r:id="rId167"/>
+    <hyperlink ref="D45" r:id="rId168"/>
+    <hyperlink ref="D120" r:id="rId169"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId165"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId170"/>
 </worksheet>
 </file>